--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
   <si>
     <t>Fecha</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>11/6/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +729,7 @@
         <v>-52.59</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -752,7 +755,7 @@
         <v>-52.08</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -778,7 +781,7 @@
         <v>-52.32</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -804,7 +807,7 @@
         <v>-52.18</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -830,7 +833,7 @@
         <v>-51.98</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -856,7 +859,7 @@
         <v>-51.76</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -882,7 +885,7 @@
         <v>-51.52</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -908,7 +911,7 @@
         <v>-51.32</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -934,7 +937,7 @@
         <v>-49.99</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -960,7 +963,7 @@
         <v>-48.42</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -986,7 +989,7 @@
         <v>-48.83</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1012,7 +1015,7 @@
         <v>-48.54</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1038,7 +1041,7 @@
         <v>-48.46</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1064,7 +1067,7 @@
         <v>-48.67</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1090,7 +1093,7 @@
         <v>-48.61</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1116,7 +1119,7 @@
         <v>-49.01</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1142,7 +1145,7 @@
         <v>-49.89</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1168,7 +1171,7 @@
         <v>-50.09</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1194,7 +1197,7 @@
         <v>-51.59</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1220,7 +1223,7 @@
         <v>-52.24</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1246,7 +1249,7 @@
         <v>-52.39</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1272,7 +1275,7 @@
         <v>-52.33</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1298,7 +1301,7 @@
         <v>-52.25</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1327,7 @@
         <v>-52.36</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1350,7 +1353,7 @@
         <v>-52.81</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1376,7 +1379,7 @@
         <v>-53.04</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,7 +1405,7 @@
         <v>-53.16</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1428,7 +1431,7 @@
         <v>-53.01</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1454,7 +1457,7 @@
         <v>-53.12</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,7 +1483,7 @@
         <v>-53.16</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1506,7 +1509,7 @@
         <v>-53.33</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1532,7 +1535,7 @@
         <v>-52.91</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1558,7 +1561,7 @@
         <v>-52.23</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1584,7 +1587,7 @@
         <v>-50.79</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1610,7 +1613,7 @@
         <v>-48.98</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1636,7 +1639,7 @@
         <v>-48.53</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1662,7 +1665,7 @@
         <v>-49.09</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1688,7 +1691,7 @@
         <v>-48.44</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1714,7 +1717,7 @@
         <v>-48.06</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1740,7 +1743,7 @@
         <v>-49.37</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1766,7 +1769,7 @@
         <v>-50.55</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1792,7 +1795,7 @@
         <v>-51.31</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1818,7 +1821,7 @@
         <v>-51.49</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1844,7 +1847,7 @@
         <v>-51.61</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1870,7 +1873,7 @@
         <v>-51.69</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1896,7 +1899,7 @@
         <v>-51.69</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1922,7 +1925,7 @@
         <v>-51.63</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1948,7 +1951,7 @@
         <v>-51.47</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,7 +1977,7 @@
         <v>-51.58</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2000,7 +2003,7 @@
         <v>-51.55</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2026,7 +2029,7 @@
         <v>-51.43</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2052,7 +2055,7 @@
         <v>-51.32</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2078,7 +2081,7 @@
         <v>-51.07</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2104,7 +2107,7 @@
         <v>-50.77</v>
       </c>
       <c r="J55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2130,7 +2133,7 @@
         <v>-50.98</v>
       </c>
       <c r="J56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2156,7 +2159,7 @@
         <v>-51.41</v>
       </c>
       <c r="J57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2182,7 +2185,7 @@
         <v>-51.18</v>
       </c>
       <c r="J58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2208,7 +2211,7 @@
         <v>-50.53</v>
       </c>
       <c r="J59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2234,7 +2237,7 @@
         <v>-49.99</v>
       </c>
       <c r="J60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2260,7 +2263,7 @@
         <v>-49.61</v>
       </c>
       <c r="J61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2286,7 +2289,7 @@
         <v>-49.3</v>
       </c>
       <c r="J62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2312,7 +2315,7 @@
         <v>-49.76</v>
       </c>
       <c r="J63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2338,7 +2341,7 @@
         <v>-49.62</v>
       </c>
       <c r="J64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2364,7 +2367,7 @@
         <v>-49.82</v>
       </c>
       <c r="J65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2390,7 +2393,7 @@
         <v>-49.93</v>
       </c>
       <c r="J66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2416,7 +2419,7 @@
         <v>-49.98</v>
       </c>
       <c r="J67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2442,7 +2445,7 @@
         <v>-50.28</v>
       </c>
       <c r="J68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2468,7 +2471,7 @@
         <v>-50.56</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2494,7 +2497,7 @@
         <v>-50.6</v>
       </c>
       <c r="J70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2520,7 +2523,7 @@
         <v>-50.66</v>
       </c>
       <c r="J71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2546,7 +2549,7 @@
         <v>-50.72</v>
       </c>
       <c r="J72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2572,7 +2575,7 @@
         <v>-50.76</v>
       </c>
       <c r="J73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2598,7 +2601,7 @@
         <v>-50.77</v>
       </c>
       <c r="J74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2624,7 +2627,7 @@
         <v>-50.85</v>
       </c>
       <c r="J75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2650,7 +2653,7 @@
         <v>-50.97</v>
       </c>
       <c r="J76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2676,7 +2679,7 @@
         <v>-51.01</v>
       </c>
       <c r="J77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2702,7 +2705,7 @@
         <v>-51.08</v>
       </c>
       <c r="J78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2728,7 +2731,7 @@
         <v>-51.25</v>
       </c>
       <c r="J79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2754,7 +2757,7 @@
         <v>-51.54</v>
       </c>
       <c r="J80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2780,7 +2783,7 @@
         <v>-51.35</v>
       </c>
       <c r="J81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2806,7 +2809,7 @@
         <v>-50.77</v>
       </c>
       <c r="J82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2832,7 +2835,7 @@
         <v>-49.07</v>
       </c>
       <c r="J83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2858,7 +2861,7 @@
         <v>-48.49</v>
       </c>
       <c r="J84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2884,7 +2887,7 @@
         <v>-48.31</v>
       </c>
       <c r="J85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2910,7 +2913,7 @@
         <v>-48.02</v>
       </c>
       <c r="J86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2936,7 +2939,7 @@
         <v>-47.26</v>
       </c>
       <c r="J87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2962,7 +2965,7 @@
         <v>-46.48</v>
       </c>
       <c r="J88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2988,7 +2991,7 @@
         <v>-46.21</v>
       </c>
       <c r="J89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3014,7 +3017,33 @@
         <v>-47.09</v>
       </c>
       <c r="J90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>98</v>
+      </c>
+      <c r="C91">
+        <v>13.57</v>
+      </c>
+      <c r="D91">
+        <v>0.36</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>15.32</v>
+      </c>
+      <c r="H91">
+        <v>-48.2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,150 +43,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/3/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/5/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -311,6 +167,147 @@
   </si>
   <si>
     <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 PM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -671,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,19 +714,19 @@
         <v>12.93</v>
       </c>
       <c r="D2">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.970000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="H2">
-        <v>-52.59</v>
+        <v>-51.58</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -743,19 +740,19 @@
         <v>12.92</v>
       </c>
       <c r="D3">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>9.77</v>
+        <v>10.56</v>
       </c>
       <c r="H3">
-        <v>-52.08</v>
+        <v>-51.55</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -769,19 +766,19 @@
         <v>12.89</v>
       </c>
       <c r="D4">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.369999999999999</v>
+        <v>10.76</v>
       </c>
       <c r="H4">
-        <v>-52.32</v>
+        <v>-51.43</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -792,22 +789,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="D5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.619999999999999</v>
+        <v>10.92</v>
       </c>
       <c r="H5">
-        <v>-52.18</v>
+        <v>-51.32</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -818,22 +815,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>12.84</v>
+        <v>12.83</v>
       </c>
       <c r="D6">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>9.92</v>
+        <v>11.33</v>
       </c>
       <c r="H6">
-        <v>-51.98</v>
+        <v>-51.07</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -844,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>12.81</v>
+        <v>12.79</v>
       </c>
       <c r="D7">
         <v>0.33</v>
@@ -853,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10.28</v>
+        <v>11.76</v>
       </c>
       <c r="H7">
-        <v>-51.76</v>
+        <v>-50.77</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -870,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>12.76</v>
+        <v>12.75</v>
       </c>
       <c r="D8">
         <v>0.33</v>
@@ -879,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10.62</v>
+        <v>11.43</v>
       </c>
       <c r="H8">
-        <v>-51.52</v>
+        <v>-50.98</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -896,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>12.93</v>
+        <v>12.73</v>
       </c>
       <c r="D9">
         <v>0.33</v>
@@ -905,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.92</v>
+        <v>10.76</v>
       </c>
       <c r="H9">
-        <v>-51.32</v>
+        <v>-51.41</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -922,22 +919,22 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>13.6</v>
+        <v>12.99</v>
       </c>
       <c r="D10">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>12.83</v>
+        <v>11.1</v>
       </c>
       <c r="H10">
-        <v>-49.99</v>
+        <v>-51.18</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -948,22 +945,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>13.62</v>
+        <v>13.33</v>
       </c>
       <c r="D11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>14.96</v>
+        <v>12.07</v>
       </c>
       <c r="H11">
-        <v>-48.42</v>
+        <v>-50.53</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -974,22 +971,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>13.63</v>
+        <v>13.51</v>
       </c>
       <c r="D12">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14.41</v>
+        <v>12.84</v>
       </c>
       <c r="H12">
-        <v>-48.83</v>
+        <v>-49.99</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1000,22 +997,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>13.63</v>
+        <v>13.52</v>
       </c>
       <c r="D13">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14.86</v>
+        <v>13.36</v>
       </c>
       <c r="H13">
-        <v>-48.54</v>
+        <v>-49.61</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1026,22 +1023,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>13.63</v>
+        <v>13.58</v>
       </c>
       <c r="D14">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>13.81</v>
       </c>
       <c r="H14">
-        <v>-48.46</v>
+        <v>-49.3</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1052,22 +1049,22 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>13.64</v>
+        <v>13.57</v>
       </c>
       <c r="D15">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>14.66</v>
+        <v>13.12</v>
       </c>
       <c r="H15">
-        <v>-48.67</v>
+        <v>-49.76</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1078,22 +1075,22 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>13.64</v>
+        <v>13.58</v>
       </c>
       <c r="D16">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>14.79</v>
+        <v>13.36</v>
       </c>
       <c r="H16">
-        <v>-48.61</v>
+        <v>-49.62</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1104,22 +1101,22 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>13.63</v>
+        <v>13.59</v>
       </c>
       <c r="D17">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>14.19</v>
+        <v>13.07</v>
       </c>
       <c r="H17">
-        <v>-49.01</v>
+        <v>-49.82</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1130,7 +1127,7 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>13.61</v>
+        <v>13.57</v>
       </c>
       <c r="D18">
         <v>0.34</v>
@@ -1139,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12.99</v>
+        <v>12.93</v>
       </c>
       <c r="H18">
-        <v>-49.89</v>
+        <v>-49.93</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1156,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>13.56</v>
+        <v>13.42</v>
       </c>
       <c r="D19">
         <v>0.34</v>
@@ -1165,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12.7</v>
+        <v>12.88</v>
       </c>
       <c r="H19">
-        <v>-50.09</v>
+        <v>-49.98</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1182,22 +1179,22 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>13.15</v>
+        <v>13.11</v>
       </c>
       <c r="D20">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.46</v>
+        <v>12.45</v>
       </c>
       <c r="H20">
-        <v>-51.59</v>
+        <v>-50.28</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1208,22 +1205,22 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="D21">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>9.5</v>
+        <v>12.04</v>
       </c>
       <c r="H21">
-        <v>-52.24</v>
+        <v>-50.56</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1234,22 +1231,22 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>13.01</v>
       </c>
       <c r="D22">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>9.27</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>-52.39</v>
+        <v>-50.6</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1263,19 +1260,19 @@
         <v>12.98</v>
       </c>
       <c r="D23">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9.359999999999999</v>
+        <v>11.91</v>
       </c>
       <c r="H23">
-        <v>-52.33</v>
+        <v>-50.66</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1289,19 +1286,19 @@
         <v>12.96</v>
       </c>
       <c r="D24">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.5</v>
+        <v>11.81</v>
       </c>
       <c r="H24">
-        <v>-52.25</v>
+        <v>-50.72</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1315,19 +1312,19 @@
         <v>12.94</v>
       </c>
       <c r="D25">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>9.32</v>
+        <v>11.75</v>
       </c>
       <c r="H25">
-        <v>-52.36</v>
+        <v>-50.76</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1338,22 +1335,22 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>12.93</v>
+        <v>12.92</v>
       </c>
       <c r="D26">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>8.58</v>
+        <v>11.74</v>
       </c>
       <c r="H26">
-        <v>-52.81</v>
+        <v>-50.77</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1364,22 +1361,22 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>12.91</v>
+        <v>12.9</v>
       </c>
       <c r="D27">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>8.23</v>
+        <v>11.62</v>
       </c>
       <c r="H27">
-        <v>-53.04</v>
+        <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1390,22 +1387,22 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>12.88</v>
+        <v>12.85</v>
       </c>
       <c r="D28">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>8.039999999999999</v>
+        <v>11.44</v>
       </c>
       <c r="H28">
-        <v>-53.16</v>
+        <v>-50.97</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1416,22 +1413,22 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>12.85</v>
+        <v>12.81</v>
       </c>
       <c r="D29">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.289999999999999</v>
+        <v>11.39</v>
       </c>
       <c r="H29">
-        <v>-53.01</v>
+        <v>-51.01</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1442,22 +1439,22 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>12.82</v>
+        <v>12.76</v>
       </c>
       <c r="D30">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>8.109999999999999</v>
+        <v>11.27</v>
       </c>
       <c r="H30">
-        <v>-53.12</v>
+        <v>-51.08</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1468,22 +1465,22 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>12.78</v>
+        <v>12.72</v>
       </c>
       <c r="D31">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>8.050000000000001</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>-53.16</v>
+        <v>-51.25</v>
       </c>
       <c r="J31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1494,22 +1491,22 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>12.73</v>
+        <v>12.71</v>
       </c>
       <c r="D32">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>7.78</v>
+        <v>10.57</v>
       </c>
       <c r="H32">
-        <v>-53.33</v>
+        <v>-51.54</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1520,22 +1517,22 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>13.03</v>
+        <v>12.72</v>
       </c>
       <c r="D33">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>8.44</v>
+        <v>10.87</v>
       </c>
       <c r="H33">
-        <v>-52.91</v>
+        <v>-51.35</v>
       </c>
       <c r="J33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1546,22 +1543,22 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>13.54</v>
+        <v>13.3</v>
       </c>
       <c r="D34">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>9.460000000000001</v>
+        <v>11.69</v>
       </c>
       <c r="H34">
-        <v>-52.23</v>
+        <v>-50.77</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1572,22 +1569,22 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D35">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>11.61</v>
+        <v>14.12</v>
       </c>
       <c r="H35">
-        <v>-50.79</v>
+        <v>-49.07</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1598,22 +1595,22 @@
         <v>43</v>
       </c>
       <c r="C36">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D36">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>14.24</v>
+        <v>14.9</v>
       </c>
       <c r="H36">
-        <v>-48.98</v>
+        <v>-48.49</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1633,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>14.82</v>
+        <v>15.15</v>
       </c>
       <c r="H37">
-        <v>-48.53</v>
+        <v>-48.31</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1653,19 +1650,19 @@
         <v>13.64</v>
       </c>
       <c r="D38">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>14.05</v>
+        <v>15.54</v>
       </c>
       <c r="H38">
-        <v>-49.09</v>
+        <v>-48.02</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1676,22 +1673,22 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>13.64</v>
+        <v>13.65</v>
       </c>
       <c r="D39">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>14.99</v>
+        <v>16.57</v>
       </c>
       <c r="H39">
-        <v>-48.44</v>
+        <v>-47.26</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1705,19 +1702,19 @@
         <v>13.65</v>
       </c>
       <c r="D40">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>15.48</v>
+        <v>17.58</v>
       </c>
       <c r="H40">
-        <v>-48.06</v>
+        <v>-46.48</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1728,22 +1725,22 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
       <c r="D41">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>13.68</v>
+        <v>17.87</v>
       </c>
       <c r="H41">
-        <v>-49.37</v>
+        <v>-46.21</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1754,22 +1751,22 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>13.62</v>
+        <v>13.65</v>
       </c>
       <c r="D42">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>16.77</v>
       </c>
       <c r="H42">
-        <v>-50.55</v>
+        <v>-47.09</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1780,22 +1777,22 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>13.43</v>
+        <v>13.57</v>
       </c>
       <c r="D43">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>10.88</v>
+        <v>15.32</v>
       </c>
       <c r="H43">
-        <v>-51.31</v>
+        <v>-48.2</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1806,22 +1803,22 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>13.07</v>
+        <v>13.1</v>
       </c>
       <c r="D44">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>10.65</v>
+        <v>13.93</v>
       </c>
       <c r="H44">
-        <v>-51.49</v>
+        <v>-49.23</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1832,22 +1829,22 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>13.03</v>
+        <v>13.05</v>
       </c>
       <c r="D45">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>10.47</v>
+        <v>12.98</v>
       </c>
       <c r="H45">
-        <v>-51.61</v>
+        <v>-49.92</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1858,22 +1855,22 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="D46">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>10.34</v>
+        <v>12.72</v>
       </c>
       <c r="H46">
-        <v>-51.69</v>
+        <v>-50.1</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1884,22 +1881,22 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>12.98</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>10.34</v>
+        <v>12.29</v>
       </c>
       <c r="H47">
-        <v>-51.69</v>
+        <v>-50.4</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,22 +1907,22 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>12.95</v>
+        <v>12.98</v>
       </c>
       <c r="D48">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>10.44</v>
+        <v>11.78</v>
       </c>
       <c r="H48">
-        <v>-51.63</v>
+        <v>-50.74</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1936,7 +1933,7 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>12.94</v>
+        <v>12.96</v>
       </c>
       <c r="D49">
         <v>0.33</v>
@@ -1945,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10.69</v>
+        <v>11.78</v>
       </c>
       <c r="H49">
-        <v>-51.47</v>
+        <v>-50.75</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1962,7 +1959,7 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>12.93</v>
+        <v>12.95</v>
       </c>
       <c r="D50">
         <v>0.33</v>
@@ -1971,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.51</v>
+        <v>11.55</v>
       </c>
       <c r="H50">
-        <v>-51.58</v>
+        <v>-50.89</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1988,7 +1985,7 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>12.92</v>
+        <v>12.94</v>
       </c>
       <c r="D51">
         <v>0.33</v>
@@ -1997,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>10.56</v>
+        <v>11.62</v>
       </c>
       <c r="H51">
-        <v>-51.55</v>
+        <v>-50.85</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2014,7 +2011,7 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>12.89</v>
+        <v>12.92</v>
       </c>
       <c r="D52">
         <v>0.33</v>
@@ -2023,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10.76</v>
+        <v>11.54</v>
       </c>
       <c r="H52">
-        <v>-51.43</v>
+        <v>-50.9</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2040,7 +2037,7 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>12.86</v>
+        <v>12.9</v>
       </c>
       <c r="D53">
         <v>0.33</v>
@@ -2049,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>10.92</v>
+        <v>11.51</v>
       </c>
       <c r="H53">
-        <v>-51.32</v>
+        <v>-50.93</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2066,7 +2063,7 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>12.83</v>
+        <v>12.88</v>
       </c>
       <c r="D54">
         <v>0.33</v>
@@ -2075,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="H54">
-        <v>-51.07</v>
+        <v>-51.02</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2092,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>12.79</v>
+        <v>12.86</v>
       </c>
       <c r="D55">
         <v>0.33</v>
@@ -2101,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>11.76</v>
+        <v>11.34</v>
       </c>
       <c r="H55">
-        <v>-50.77</v>
+        <v>-51.04</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2118,7 +2115,7 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>12.75</v>
+        <v>12.84</v>
       </c>
       <c r="D56">
         <v>0.33</v>
@@ -2127,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>11.43</v>
+        <v>11.18</v>
       </c>
       <c r="H56">
-        <v>-50.98</v>
+        <v>-51.15</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2144,7 +2141,7 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>12.73</v>
+        <v>13.09</v>
       </c>
       <c r="D57">
         <v>0.33</v>
@@ -2153,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>10.76</v>
+        <v>11.11</v>
       </c>
       <c r="H57">
-        <v>-51.41</v>
+        <v>-51.17</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2170,22 +2167,22 @@
         <v>65</v>
       </c>
       <c r="C58">
-        <v>12.99</v>
+        <v>13.57</v>
       </c>
       <c r="D58">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>11.1</v>
+        <v>12.16</v>
       </c>
       <c r="H58">
-        <v>-51.18</v>
+        <v>-50.43</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2196,22 +2193,22 @@
         <v>66</v>
       </c>
       <c r="C59">
-        <v>13.33</v>
+        <v>13.62</v>
       </c>
       <c r="D59">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>12.07</v>
+        <v>14.54</v>
       </c>
       <c r="H59">
-        <v>-50.53</v>
+        <v>-48.75</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2222,22 +2219,22 @@
         <v>67</v>
       </c>
       <c r="C60">
-        <v>13.51</v>
+        <v>13.63</v>
       </c>
       <c r="D60">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>12.84</v>
+        <v>15.64</v>
       </c>
       <c r="H60">
-        <v>-49.99</v>
+        <v>-47.89</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2248,22 +2245,22 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>13.52</v>
+        <v>13.63</v>
       </c>
       <c r="D61">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>13.36</v>
+        <v>16.33</v>
       </c>
       <c r="H61">
-        <v>-49.61</v>
+        <v>-47.42</v>
       </c>
       <c r="J61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2274,22 +2271,22 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>13.58</v>
+        <v>13.64</v>
       </c>
       <c r="D62">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>13.81</v>
+        <v>18.17</v>
       </c>
       <c r="H62">
-        <v>-49.3</v>
+        <v>-46.02</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2300,22 +2297,22 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>13.57</v>
+        <v>13.64</v>
       </c>
       <c r="D63">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>13.12</v>
+        <v>16.56</v>
       </c>
       <c r="H63">
-        <v>-49.76</v>
+        <v>-47.25</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2326,22 +2323,22 @@
         <v>71</v>
       </c>
       <c r="C64">
-        <v>13.58</v>
+        <v>13.61</v>
       </c>
       <c r="D64">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>13.36</v>
+        <v>15.28</v>
       </c>
       <c r="H64">
-        <v>-49.62</v>
+        <v>-48.19</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2352,22 +2349,22 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>13.59</v>
+        <v>13.54</v>
       </c>
       <c r="D65">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>13.07</v>
+        <v>13.51</v>
       </c>
       <c r="H65">
-        <v>-49.82</v>
+        <v>-49.5</v>
       </c>
       <c r="J65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2378,22 +2375,22 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>13.57</v>
+        <v>13.62</v>
       </c>
       <c r="D66">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>12.93</v>
+        <v>13.77</v>
       </c>
       <c r="H66">
-        <v>-49.93</v>
+        <v>-49.35</v>
       </c>
       <c r="J66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2404,22 +2401,22 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>13.42</v>
+        <v>13.32</v>
       </c>
       <c r="D67">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>12.88</v>
+        <v>13.53</v>
       </c>
       <c r="H67">
-        <v>-49.98</v>
+        <v>-49.52</v>
       </c>
       <c r="J67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2430,7 +2427,7 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>13.11</v>
+        <v>13.05</v>
       </c>
       <c r="D68">
         <v>0.34</v>
@@ -2439,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>12.45</v>
+        <v>12.78</v>
       </c>
       <c r="H68">
-        <v>-50.28</v>
+        <v>-50.04</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2456,7 +2453,7 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="D69">
         <v>0.34</v>
@@ -2465,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12.04</v>
+        <v>12.76</v>
       </c>
       <c r="H69">
-        <v>-50.56</v>
+        <v>-50.08</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2482,7 +2479,7 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>13.01</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0.34</v>
@@ -2491,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="H70">
-        <v>-50.6</v>
+        <v>-50.14</v>
       </c>
       <c r="J70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2508,7 +2505,7 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>12.98</v>
+        <v>12.99</v>
       </c>
       <c r="D71">
         <v>0.34</v>
@@ -2517,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>11.91</v>
+        <v>12.41</v>
       </c>
       <c r="H71">
-        <v>-50.66</v>
+        <v>-50.31</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2534,7 +2531,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>12.96</v>
+        <v>12.97</v>
       </c>
       <c r="D72">
         <v>0.34</v>
@@ -2543,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>11.81</v>
+        <v>12.07</v>
       </c>
       <c r="H72">
-        <v>-50.72</v>
+        <v>-50.55</v>
       </c>
       <c r="J72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2560,7 +2557,7 @@
         <v>80</v>
       </c>
       <c r="C73">
-        <v>12.94</v>
+        <v>12.95</v>
       </c>
       <c r="D73">
         <v>0.34</v>
@@ -2569,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>11.75</v>
+        <v>11.86</v>
       </c>
       <c r="H73">
-        <v>-50.76</v>
+        <v>-50.69</v>
       </c>
       <c r="J73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2585,11 +2582,8 @@
       <c r="B74" t="s">
         <v>81</v>
       </c>
-      <c r="C74">
-        <v>12.92</v>
-      </c>
       <c r="D74">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2601,7 +2595,7 @@
         <v>-50.77</v>
       </c>
       <c r="J74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2612,7 +2606,7 @@
         <v>82</v>
       </c>
       <c r="C75">
-        <v>12.9</v>
+        <v>12.92</v>
       </c>
       <c r="D75">
         <v>0.33</v>
@@ -2621,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="H75">
-        <v>-50.85</v>
+        <v>-51.02</v>
       </c>
       <c r="J75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2638,7 +2632,7 @@
         <v>83</v>
       </c>
       <c r="C76">
-        <v>12.85</v>
+        <v>12.89</v>
       </c>
       <c r="D76">
         <v>0.33</v>
@@ -2647,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>11.44</v>
+        <v>11.02</v>
       </c>
       <c r="H76">
-        <v>-50.97</v>
+        <v>-51.24</v>
       </c>
       <c r="J76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2664,7 +2658,7 @@
         <v>84</v>
       </c>
       <c r="C77">
-        <v>12.81</v>
+        <v>12.86</v>
       </c>
       <c r="D77">
         <v>0.33</v>
@@ -2673,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>11.39</v>
+        <v>10.76</v>
       </c>
       <c r="H77">
-        <v>-51.01</v>
+        <v>-51.41</v>
       </c>
       <c r="J77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2690,7 +2684,7 @@
         <v>85</v>
       </c>
       <c r="C78">
-        <v>12.76</v>
+        <v>12.83</v>
       </c>
       <c r="D78">
         <v>0.33</v>
@@ -2699,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>11.27</v>
+        <v>10.44</v>
       </c>
       <c r="H78">
-        <v>-51.08</v>
+        <v>-51.62</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2716,7 +2710,7 @@
         <v>86</v>
       </c>
       <c r="C79">
-        <v>12.72</v>
+        <v>12.8</v>
       </c>
       <c r="D79">
         <v>0.33</v>
@@ -2725,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>10.16</v>
       </c>
       <c r="H79">
-        <v>-51.25</v>
+        <v>-51.81</v>
       </c>
       <c r="J79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2742,7 +2736,7 @@
         <v>87</v>
       </c>
       <c r="C80">
-        <v>12.71</v>
+        <v>12.78</v>
       </c>
       <c r="D80">
         <v>0.33</v>
@@ -2751,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>10.57</v>
+        <v>10.15</v>
       </c>
       <c r="H80">
-        <v>-51.54</v>
+        <v>-51.81</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2768,7 +2762,7 @@
         <v>88</v>
       </c>
       <c r="C81">
-        <v>12.72</v>
+        <v>13.12</v>
       </c>
       <c r="D81">
         <v>0.33</v>
@@ -2777,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>10.87</v>
+        <v>10.19</v>
       </c>
       <c r="H81">
-        <v>-51.35</v>
+        <v>-51.76</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2794,22 +2788,22 @@
         <v>89</v>
       </c>
       <c r="C82">
-        <v>13.3</v>
+        <v>13.57</v>
       </c>
       <c r="D82">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>11.69</v>
+        <v>11.15</v>
       </c>
       <c r="H82">
-        <v>-50.77</v>
+        <v>-51.1</v>
       </c>
       <c r="J82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2823,19 +2817,19 @@
         <v>13.61</v>
       </c>
       <c r="D83">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>14.12</v>
+        <v>14.87</v>
       </c>
       <c r="H83">
-        <v>-49.07</v>
+        <v>-48.49</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2846,22 +2840,22 @@
         <v>91</v>
       </c>
       <c r="C84">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D84">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>14.9</v>
+        <v>17.27</v>
       </c>
       <c r="H84">
-        <v>-48.49</v>
+        <v>-46.67</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2872,22 +2866,22 @@
         <v>92</v>
       </c>
       <c r="C85">
-        <v>13.63</v>
+        <v>13.65</v>
       </c>
       <c r="D85">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>15.15</v>
+        <v>18.53</v>
       </c>
       <c r="H85">
-        <v>-48.31</v>
+        <v>-45.67</v>
       </c>
       <c r="J85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2898,22 +2892,22 @@
         <v>93</v>
       </c>
       <c r="C86">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
       <c r="D86">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>15.54</v>
+        <v>19.31</v>
       </c>
       <c r="H86">
-        <v>-48.02</v>
+        <v>-45.05</v>
       </c>
       <c r="J86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2924,22 +2918,22 @@
         <v>94</v>
       </c>
       <c r="C87">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="D87">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>16.57</v>
+        <v>20.01</v>
       </c>
       <c r="H87">
-        <v>-47.26</v>
+        <v>-44.45</v>
       </c>
       <c r="J87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2950,7 +2944,7 @@
         <v>95</v>
       </c>
       <c r="C88">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="D88">
         <v>0.39</v>
@@ -2959,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>17.58</v>
+        <v>17.39</v>
       </c>
       <c r="H88">
-        <v>-46.48</v>
+        <v>-46.58</v>
       </c>
       <c r="J88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2976,22 +2970,22 @@
         <v>96</v>
       </c>
       <c r="C89">
-        <v>13.66</v>
+        <v>13.64</v>
       </c>
       <c r="D89">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>17.87</v>
+        <v>16.62</v>
       </c>
       <c r="H89">
-        <v>-46.21</v>
+        <v>-47.26</v>
       </c>
       <c r="J89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3002,48 +2996,22 @@
         <v>97</v>
       </c>
       <c r="C90">
-        <v>13.65</v>
+        <v>13.44</v>
       </c>
       <c r="D90">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>16.77</v>
+        <v>15.92</v>
       </c>
       <c r="H90">
-        <v>-47.09</v>
+        <v>-47.77</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91">
-        <v>13.57</v>
-      </c>
-      <c r="D91">
-        <v>0.36</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>15.32</v>
-      </c>
-      <c r="H91">
-        <v>-48.2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,78 +43,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/5/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/6/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -308,6 +236,12 @@
   </si>
   <si>
     <t>11/8/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -668,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>12.93</v>
+        <v>12.92</v>
       </c>
       <c r="D2">
         <v>0.33</v>
@@ -720,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10.51</v>
+        <v>11.74</v>
       </c>
       <c r="H2">
-        <v>-51.58</v>
+        <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -737,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D3">
         <v>0.33</v>
@@ -746,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10.56</v>
+        <v>11.62</v>
       </c>
       <c r="H3">
-        <v>-51.55</v>
+        <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -763,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>12.89</v>
+        <v>12.85</v>
       </c>
       <c r="D4">
         <v>0.33</v>
@@ -772,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.76</v>
+        <v>11.44</v>
       </c>
       <c r="H4">
-        <v>-51.43</v>
+        <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -789,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>12.86</v>
+        <v>12.81</v>
       </c>
       <c r="D5">
         <v>0.33</v>
@@ -798,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10.92</v>
+        <v>11.39</v>
       </c>
       <c r="H5">
-        <v>-51.32</v>
+        <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -815,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>12.83</v>
+        <v>12.76</v>
       </c>
       <c r="D6">
         <v>0.33</v>
@@ -824,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11.33</v>
+        <v>11.27</v>
       </c>
       <c r="H6">
-        <v>-51.07</v>
+        <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -841,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>12.79</v>
+        <v>12.72</v>
       </c>
       <c r="D7">
         <v>0.33</v>
@@ -850,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11.76</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>-50.77</v>
+        <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -867,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>12.75</v>
+        <v>12.71</v>
       </c>
       <c r="D8">
         <v>0.33</v>
@@ -876,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>11.43</v>
+        <v>10.57</v>
       </c>
       <c r="H8">
-        <v>-50.98</v>
+        <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -893,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>12.73</v>
+        <v>12.72</v>
       </c>
       <c r="D9">
         <v>0.33</v>
@@ -902,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.76</v>
+        <v>10.87</v>
       </c>
       <c r="H9">
-        <v>-51.41</v>
+        <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -919,22 +853,22 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>12.99</v>
+        <v>13.3</v>
       </c>
       <c r="D10">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.1</v>
+        <v>11.69</v>
       </c>
       <c r="H10">
-        <v>-51.18</v>
+        <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -945,22 +879,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>13.33</v>
+        <v>13.61</v>
       </c>
       <c r="D11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>12.07</v>
+        <v>14.12</v>
       </c>
       <c r="H11">
-        <v>-50.53</v>
+        <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -971,22 +905,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>13.51</v>
+        <v>13.63</v>
       </c>
       <c r="D12">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>12.84</v>
+        <v>14.9</v>
       </c>
       <c r="H12">
-        <v>-49.99</v>
+        <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -997,22 +931,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>13.52</v>
+        <v>13.63</v>
       </c>
       <c r="D13">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13.36</v>
+        <v>15.15</v>
       </c>
       <c r="H13">
-        <v>-49.61</v>
+        <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1023,22 +957,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>13.58</v>
+        <v>13.64</v>
       </c>
       <c r="D14">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>13.81</v>
+        <v>15.54</v>
       </c>
       <c r="H14">
-        <v>-49.3</v>
+        <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1049,22 +983,22 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>13.57</v>
+        <v>13.65</v>
       </c>
       <c r="D15">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13.12</v>
+        <v>16.57</v>
       </c>
       <c r="H15">
-        <v>-49.76</v>
+        <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1075,22 +1009,22 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>13.58</v>
+        <v>13.65</v>
       </c>
       <c r="D16">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13.36</v>
+        <v>17.58</v>
       </c>
       <c r="H16">
-        <v>-49.62</v>
+        <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1101,22 +1035,22 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>13.59</v>
+        <v>13.66</v>
       </c>
       <c r="D17">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>13.07</v>
+        <v>17.87</v>
       </c>
       <c r="H17">
-        <v>-49.82</v>
+        <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1127,22 +1061,22 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>13.57</v>
+        <v>13.65</v>
       </c>
       <c r="D18">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12.93</v>
+        <v>16.77</v>
       </c>
       <c r="H18">
-        <v>-49.93</v>
+        <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1153,22 +1087,22 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>13.42</v>
+        <v>13.57</v>
       </c>
       <c r="D19">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12.88</v>
+        <v>15.32</v>
       </c>
       <c r="H19">
-        <v>-49.98</v>
+        <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1179,22 +1113,22 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>13.11</v>
+        <v>13.1</v>
       </c>
       <c r="D20">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>12.45</v>
+        <v>13.93</v>
       </c>
       <c r="H20">
-        <v>-50.28</v>
+        <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1205,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>13.04</v>
+        <v>13.05</v>
       </c>
       <c r="D21">
         <v>0.34</v>
@@ -1214,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12.04</v>
+        <v>12.98</v>
       </c>
       <c r="H21">
-        <v>-50.56</v>
+        <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1231,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="D22">
         <v>0.34</v>
@@ -1240,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="H22">
-        <v>-50.6</v>
+        <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1257,7 +1191,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>12.98</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>0.34</v>
@@ -1266,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.91</v>
+        <v>12.29</v>
       </c>
       <c r="H23">
-        <v>-50.66</v>
+        <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1283,7 +1217,7 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>12.96</v>
+        <v>12.98</v>
       </c>
       <c r="D24">
         <v>0.34</v>
@@ -1292,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11.81</v>
+        <v>11.78</v>
       </c>
       <c r="H24">
-        <v>-50.72</v>
+        <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1309,22 +1243,22 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>12.94</v>
+        <v>12.96</v>
       </c>
       <c r="D25">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>11.75</v>
+        <v>11.78</v>
       </c>
       <c r="H25">
-        <v>-50.76</v>
+        <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1335,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>12.92</v>
+        <v>12.95</v>
       </c>
       <c r="D26">
         <v>0.33</v>
@@ -1344,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>11.74</v>
+        <v>11.55</v>
       </c>
       <c r="H26">
-        <v>-50.77</v>
+        <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1361,7 +1295,7 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>12.9</v>
+        <v>12.94</v>
       </c>
       <c r="D27">
         <v>0.33</v>
@@ -1376,7 +1310,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1387,7 +1321,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>12.85</v>
+        <v>12.92</v>
       </c>
       <c r="D28">
         <v>0.33</v>
@@ -1396,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="H28">
-        <v>-50.97</v>
+        <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1413,7 +1347,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>12.81</v>
+        <v>12.9</v>
       </c>
       <c r="D29">
         <v>0.33</v>
@@ -1422,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>11.39</v>
+        <v>11.51</v>
       </c>
       <c r="H29">
-        <v>-51.01</v>
+        <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1439,7 +1373,7 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>12.76</v>
+        <v>12.88</v>
       </c>
       <c r="D30">
         <v>0.33</v>
@@ -1448,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>11.27</v>
+        <v>11.36</v>
       </c>
       <c r="H30">
-        <v>-51.08</v>
+        <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1465,7 +1399,7 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>12.72</v>
+        <v>12.86</v>
       </c>
       <c r="D31">
         <v>0.33</v>
@@ -1474,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>11.34</v>
       </c>
       <c r="H31">
-        <v>-51.25</v>
+        <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1491,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>12.71</v>
+        <v>12.84</v>
       </c>
       <c r="D32">
         <v>0.33</v>
@@ -1500,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>10.57</v>
+        <v>11.18</v>
       </c>
       <c r="H32">
-        <v>-51.54</v>
+        <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1517,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>12.72</v>
+        <v>13.09</v>
       </c>
       <c r="D33">
         <v>0.33</v>
@@ -1526,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>10.87</v>
+        <v>11.11</v>
       </c>
       <c r="H33">
-        <v>-51.35</v>
+        <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1543,7 +1477,7 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>13.3</v>
+        <v>13.57</v>
       </c>
       <c r="D34">
         <v>0.34</v>
@@ -1552,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>11.69</v>
+        <v>12.16</v>
       </c>
       <c r="H34">
-        <v>-50.77</v>
+        <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1569,22 +1503,22 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D35">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>14.12</v>
+        <v>14.54</v>
       </c>
       <c r="H35">
-        <v>-49.07</v>
+        <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1598,19 +1532,19 @@
         <v>13.63</v>
       </c>
       <c r="D36">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>14.9</v>
+        <v>15.64</v>
       </c>
       <c r="H36">
-        <v>-48.49</v>
+        <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1624,19 +1558,19 @@
         <v>13.63</v>
       </c>
       <c r="D37">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>15.15</v>
+        <v>16.33</v>
       </c>
       <c r="H37">
-        <v>-48.31</v>
+        <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1650,19 +1584,19 @@
         <v>13.64</v>
       </c>
       <c r="D38">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>15.54</v>
+        <v>18.17</v>
       </c>
       <c r="H38">
-        <v>-48.02</v>
+        <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1673,7 +1607,7 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>13.65</v>
+        <v>13.64</v>
       </c>
       <c r="D39">
         <v>0.38</v>
@@ -1682,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>16.57</v>
+        <v>16.56</v>
       </c>
       <c r="H39">
-        <v>-47.26</v>
+        <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1699,22 +1633,22 @@
         <v>47</v>
       </c>
       <c r="C40">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="D40">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>17.58</v>
+        <v>15.28</v>
       </c>
       <c r="H40">
-        <v>-46.48</v>
+        <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1725,22 +1659,22 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>13.66</v>
+        <v>13.54</v>
       </c>
       <c r="D41">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>17.87</v>
+        <v>13.51</v>
       </c>
       <c r="H41">
-        <v>-46.21</v>
+        <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1751,22 +1685,22 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>13.65</v>
+        <v>13.62</v>
       </c>
       <c r="D42">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>16.77</v>
+        <v>13.77</v>
       </c>
       <c r="H42">
-        <v>-47.09</v>
+        <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1777,22 +1711,22 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>13.57</v>
+        <v>13.32</v>
       </c>
       <c r="D43">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>15.32</v>
+        <v>13.53</v>
       </c>
       <c r="H43">
-        <v>-48.2</v>
+        <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1803,22 +1737,22 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>13.1</v>
+        <v>13.05</v>
       </c>
       <c r="D44">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13.93</v>
+        <v>12.78</v>
       </c>
       <c r="H44">
-        <v>-49.23</v>
+        <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1829,7 +1763,7 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>13.05</v>
+        <v>13.02</v>
       </c>
       <c r="D45">
         <v>0.34</v>
@@ -1838,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>12.98</v>
+        <v>12.76</v>
       </c>
       <c r="H45">
-        <v>-49.92</v>
+        <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1855,7 +1789,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0.34</v>
@@ -1864,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>12.72</v>
+        <v>12.66</v>
       </c>
       <c r="H46">
-        <v>-50.1</v>
+        <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1881,7 +1815,7 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="D47">
         <v>0.34</v>
@@ -1890,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>12.29</v>
+        <v>12.41</v>
       </c>
       <c r="H47">
-        <v>-50.4</v>
+        <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1907,7 +1841,7 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="D48">
         <v>0.34</v>
@@ -1916,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>11.78</v>
+        <v>12.07</v>
       </c>
       <c r="H48">
-        <v>-50.74</v>
+        <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1933,22 +1867,22 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="D49">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>11.78</v>
+        <v>11.86</v>
       </c>
       <c r="H49">
-        <v>-50.75</v>
+        <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1958,23 +1892,20 @@
       <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="C50">
-        <v>12.95</v>
-      </c>
       <c r="D50">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>11.55</v>
+        <v>11.74</v>
       </c>
       <c r="H50">
-        <v>-50.89</v>
+        <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1985,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>12.94</v>
+        <v>12.92</v>
       </c>
       <c r="D51">
         <v>0.33</v>
@@ -1994,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="H51">
-        <v>-50.85</v>
+        <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2011,7 +1942,7 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>12.92</v>
+        <v>12.89</v>
       </c>
       <c r="D52">
         <v>0.33</v>
@@ -2020,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>11.54</v>
+        <v>11.02</v>
       </c>
       <c r="H52">
-        <v>-50.9</v>
+        <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2037,7 +1968,7 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>12.9</v>
+        <v>12.86</v>
       </c>
       <c r="D53">
         <v>0.33</v>
@@ -2046,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>11.51</v>
+        <v>10.76</v>
       </c>
       <c r="H53">
-        <v>-50.93</v>
+        <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2063,7 +1994,7 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>12.88</v>
+        <v>12.83</v>
       </c>
       <c r="D54">
         <v>0.33</v>
@@ -2072,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>11.36</v>
+        <v>10.44</v>
       </c>
       <c r="H54">
-        <v>-51.02</v>
+        <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2089,7 +2020,7 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>12.86</v>
+        <v>12.8</v>
       </c>
       <c r="D55">
         <v>0.33</v>
@@ -2098,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>11.34</v>
+        <v>10.16</v>
       </c>
       <c r="H55">
-        <v>-51.04</v>
+        <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2115,7 +2046,7 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>12.84</v>
+        <v>12.78</v>
       </c>
       <c r="D56">
         <v>0.33</v>
@@ -2124,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>11.18</v>
+        <v>10.15</v>
       </c>
       <c r="H56">
-        <v>-51.15</v>
+        <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2141,7 +2072,7 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>13.09</v>
+        <v>13.12</v>
       </c>
       <c r="D57">
         <v>0.33</v>
@@ -2150,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>11.11</v>
+        <v>10.19</v>
       </c>
       <c r="H57">
-        <v>-51.17</v>
+        <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2170,19 +2101,19 @@
         <v>13.57</v>
       </c>
       <c r="D58">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>12.16</v>
+        <v>11.15</v>
       </c>
       <c r="H58">
-        <v>-50.43</v>
+        <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2193,7 +2124,7 @@
         <v>66</v>
       </c>
       <c r="C59">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D59">
         <v>0.36</v>
@@ -2202,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>14.54</v>
+        <v>14.87</v>
       </c>
       <c r="H59">
-        <v>-48.75</v>
+        <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2219,22 +2150,22 @@
         <v>67</v>
       </c>
       <c r="C60">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D60">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>15.64</v>
+        <v>17.27</v>
       </c>
       <c r="H60">
-        <v>-47.89</v>
+        <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2245,22 +2176,22 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>13.63</v>
+        <v>13.65</v>
       </c>
       <c r="D61">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>16.33</v>
+        <v>18.53</v>
       </c>
       <c r="H61">
-        <v>-47.42</v>
+        <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2271,22 +2202,22 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
       <c r="D62">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>18.17</v>
+        <v>19.31</v>
       </c>
       <c r="H62">
-        <v>-46.02</v>
+        <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2297,22 +2228,22 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
       <c r="D63">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>16.56</v>
+        <v>20.01</v>
       </c>
       <c r="H63">
-        <v>-47.25</v>
+        <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2323,22 +2254,22 @@
         <v>71</v>
       </c>
       <c r="C64">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="D64">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>15.28</v>
+        <v>17.39</v>
       </c>
       <c r="H64">
-        <v>-48.19</v>
+        <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2349,22 +2280,22 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>13.54</v>
+        <v>13.64</v>
       </c>
       <c r="D65">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>13.51</v>
+        <v>16.62</v>
       </c>
       <c r="H65">
-        <v>-49.5</v>
+        <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2375,22 +2306,22 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>13.62</v>
+        <v>13.44</v>
       </c>
       <c r="D66">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>13.77</v>
+        <v>15.92</v>
       </c>
       <c r="H66">
-        <v>-49.35</v>
+        <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2401,22 +2332,22 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>13.32</v>
+        <v>13.11</v>
       </c>
       <c r="D67">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>13.53</v>
+        <v>14.65</v>
       </c>
       <c r="H67">
-        <v>-49.52</v>
+        <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2430,588 +2361,19 @@
         <v>13.05</v>
       </c>
       <c r="D68">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>12.78</v>
+        <v>13.74</v>
       </c>
       <c r="H68">
-        <v>-50.04</v>
+        <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69">
-        <v>13.02</v>
-      </c>
-      <c r="D69">
-        <v>0.34</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>12.76</v>
-      </c>
-      <c r="H69">
-        <v>-50.08</v>
-      </c>
-      <c r="J69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70">
-        <v>13</v>
-      </c>
-      <c r="D70">
-        <v>0.34</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>12.66</v>
-      </c>
-      <c r="H70">
-        <v>-50.14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71">
-        <v>12.99</v>
-      </c>
-      <c r="D71">
-        <v>0.34</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>12.41</v>
-      </c>
-      <c r="H71">
-        <v>-50.31</v>
-      </c>
-      <c r="J71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72">
-        <v>12.97</v>
-      </c>
-      <c r="D72">
-        <v>0.34</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>12.07</v>
-      </c>
-      <c r="H72">
-        <v>-50.55</v>
-      </c>
-      <c r="J72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73">
-        <v>12.95</v>
-      </c>
-      <c r="D73">
-        <v>0.34</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>11.86</v>
-      </c>
-      <c r="H73">
-        <v>-50.69</v>
-      </c>
-      <c r="J73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74">
-        <v>0.34</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>11.74</v>
-      </c>
-      <c r="H74">
-        <v>-50.77</v>
-      </c>
-      <c r="J74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75">
-        <v>12.92</v>
-      </c>
-      <c r="D75">
-        <v>0.33</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>11.33</v>
-      </c>
-      <c r="H75">
-        <v>-51.02</v>
-      </c>
-      <c r="J75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76">
-        <v>12.89</v>
-      </c>
-      <c r="D76">
-        <v>0.33</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>11.02</v>
-      </c>
-      <c r="H76">
-        <v>-51.24</v>
-      </c>
-      <c r="J76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77">
-        <v>12.86</v>
-      </c>
-      <c r="D77">
-        <v>0.33</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>10.76</v>
-      </c>
-      <c r="H77">
-        <v>-51.41</v>
-      </c>
-      <c r="J77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78">
-        <v>12.83</v>
-      </c>
-      <c r="D78">
-        <v>0.33</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>10.44</v>
-      </c>
-      <c r="H78">
-        <v>-51.62</v>
-      </c>
-      <c r="J78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79">
-        <v>12.8</v>
-      </c>
-      <c r="D79">
-        <v>0.33</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>10.16</v>
-      </c>
-      <c r="H79">
-        <v>-51.81</v>
-      </c>
-      <c r="J79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80">
-        <v>12.78</v>
-      </c>
-      <c r="D80">
-        <v>0.33</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>10.15</v>
-      </c>
-      <c r="H80">
-        <v>-51.81</v>
-      </c>
-      <c r="J80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81">
-        <v>13.12</v>
-      </c>
-      <c r="D81">
-        <v>0.33</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>10.19</v>
-      </c>
-      <c r="H81">
-        <v>-51.76</v>
-      </c>
-      <c r="J81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82">
-        <v>13.57</v>
-      </c>
-      <c r="D82">
-        <v>0.33</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>11.15</v>
-      </c>
-      <c r="H82">
-        <v>-51.1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83">
-        <v>13.61</v>
-      </c>
-      <c r="D83">
-        <v>0.36</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>14.87</v>
-      </c>
-      <c r="H83">
-        <v>-48.49</v>
-      </c>
-      <c r="J83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84">
-        <v>13.64</v>
-      </c>
-      <c r="D84">
-        <v>0.39</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>17.27</v>
-      </c>
-      <c r="H84">
-        <v>-46.67</v>
-      </c>
-      <c r="J84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85">
-        <v>13.65</v>
-      </c>
-      <c r="D85">
-        <v>0.4</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>18.53</v>
-      </c>
-      <c r="H85">
-        <v>-45.67</v>
-      </c>
-      <c r="J85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86">
-        <v>13.66</v>
-      </c>
-      <c r="D86">
-        <v>0.41</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>19.31</v>
-      </c>
-      <c r="H86">
-        <v>-45.05</v>
-      </c>
-      <c r="J86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87">
-        <v>13.66</v>
-      </c>
-      <c r="D87">
-        <v>0.42</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>20.01</v>
-      </c>
-      <c r="H87">
-        <v>-44.45</v>
-      </c>
-      <c r="J87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88">
-        <v>13.66</v>
-      </c>
-      <c r="D88">
-        <v>0.39</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>17.39</v>
-      </c>
-      <c r="H88">
-        <v>-46.58</v>
-      </c>
-      <c r="J88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89">
-        <v>13.64</v>
-      </c>
-      <c r="D89">
-        <v>0.37</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>16.62</v>
-      </c>
-      <c r="H89">
-        <v>-47.26</v>
-      </c>
-      <c r="J89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90">
-        <v>13.44</v>
-      </c>
-      <c r="D90">
-        <v>0.37</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>15.92</v>
-      </c>
-      <c r="H90">
-        <v>-47.77</v>
-      </c>
-      <c r="J90" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>11/8/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 PM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +672,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -695,7 +698,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -721,7 +724,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -747,7 +750,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -773,7 +776,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -799,7 +802,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -825,7 +828,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -851,7 +854,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -877,7 +880,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -903,7 +906,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -929,7 +932,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -955,7 +958,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -981,7 +984,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1007,7 +1010,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1033,7 +1036,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1059,7 +1062,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1085,7 +1088,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1111,7 +1114,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1137,7 +1140,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1163,7 +1166,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,7 +1192,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1215,7 +1218,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1241,7 +1244,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1267,7 +1270,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1293,7 +1296,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1319,7 +1322,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1345,7 +1348,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1371,7 +1374,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1397,7 +1400,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1423,7 +1426,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1449,7 +1452,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1475,7 +1478,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1501,7 +1504,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1527,7 +1530,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1553,7 +1556,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1579,7 +1582,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1605,7 +1608,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1631,7 +1634,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1657,7 +1660,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1683,7 +1686,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1709,7 +1712,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1735,7 +1738,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1761,7 +1764,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1787,7 +1790,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1813,7 +1816,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1839,7 +1842,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1865,7 +1868,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1891,7 +1894,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1914,7 +1917,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1940,7 +1943,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1966,7 +1969,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1992,7 +1995,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2018,7 +2021,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2044,7 +2047,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2070,7 +2073,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2096,7 +2099,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2122,7 +2125,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2148,7 +2151,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2174,7 +2177,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2200,7 +2203,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2226,7 +2229,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2252,7 +2255,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2278,7 +2281,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2304,7 +2307,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2330,7 +2333,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2356,7 +2359,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2382,7 +2385,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2408,7 +2411,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2434,7 +2437,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2460,7 +2463,33 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>79</v>
+      </c>
+      <c r="C72">
+        <v>12.96</v>
+      </c>
+      <c r="D72">
+        <v>0.34</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>12.14</v>
+      </c>
+      <c r="H72">
+        <v>-50.5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>11/8/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -614,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +678,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -698,7 +704,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -724,7 +730,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -750,7 +756,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -776,7 +782,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -802,7 +808,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -828,7 +834,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -854,7 +860,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -880,7 +886,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -906,7 +912,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -932,7 +938,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -958,7 +964,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -984,7 +990,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1010,7 +1016,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1042,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1062,7 +1068,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1088,7 +1094,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,7 +1120,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1140,7 +1146,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1166,7 +1172,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1192,7 +1198,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,7 +1224,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1244,7 +1250,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1270,7 +1276,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1296,7 +1302,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1322,7 +1328,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1348,7 +1354,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1374,7 +1380,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1400,7 +1406,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1426,7 +1432,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1452,7 +1458,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1478,7 +1484,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1504,7 +1510,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1530,7 +1536,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1556,7 +1562,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1582,7 +1588,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1608,7 +1614,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1634,7 +1640,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1660,7 +1666,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,7 +1692,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1712,7 +1718,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1738,7 +1744,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1764,7 +1770,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1790,7 +1796,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1816,7 +1822,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1842,7 +1848,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1868,7 +1874,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1894,7 +1900,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1917,7 +1923,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1943,7 +1949,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1969,7 +1975,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1995,7 +2001,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2021,7 +2027,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2047,7 +2053,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2073,7 +2079,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2099,7 +2105,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2125,7 +2131,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2151,7 +2157,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2177,7 +2183,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2203,7 +2209,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2229,7 +2235,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2255,7 +2261,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2281,7 +2287,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2307,7 +2313,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2333,7 +2339,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2359,7 +2365,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2385,7 +2391,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2411,7 +2417,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2437,7 +2443,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2463,7 +2469,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2489,7 +2495,59 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>80</v>
+      </c>
+      <c r="C73">
+        <v>12.94</v>
+      </c>
+      <c r="D73">
+        <v>0.34</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>12.26</v>
+      </c>
+      <c r="H73">
+        <v>-50.42</v>
+      </c>
+      <c r="J73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>12.93</v>
+      </c>
+      <c r="D74">
+        <v>0.34</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>12.2</v>
+      </c>
+      <c r="H74">
+        <v>-50.47</v>
+      </c>
+      <c r="J74" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Fecha</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +681,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -704,7 +707,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -730,7 +733,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -756,7 +759,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -782,7 +785,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -808,7 +811,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -834,7 +837,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -860,7 +863,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -886,7 +889,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -912,7 +915,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -938,7 +941,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -964,7 +967,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -990,7 +993,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1016,7 +1019,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1042,7 +1045,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1071,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1094,7 +1097,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1120,7 +1123,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,7 +1149,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1172,7 +1175,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1198,7 +1201,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1224,7 +1227,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1250,7 +1253,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1276,7 +1279,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1302,7 +1305,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1328,7 +1331,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1354,7 +1357,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1380,7 +1383,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1406,7 +1409,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1432,7 +1435,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1458,7 +1461,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1484,7 +1487,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1510,7 +1513,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1536,7 +1539,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1562,7 +1565,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1588,7 +1591,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1614,7 +1617,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1640,7 +1643,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1666,7 +1669,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1692,7 +1695,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,7 +1721,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1744,7 +1747,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1770,7 +1773,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1796,7 +1799,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1822,7 +1825,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1848,7 +1851,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1874,7 +1877,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1900,7 +1903,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1923,7 +1926,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1949,7 +1952,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1975,7 +1978,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2001,7 +2004,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2027,7 +2030,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2053,7 +2056,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2079,7 +2082,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2105,7 +2108,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2131,7 +2134,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2157,7 +2160,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2183,7 +2186,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2209,7 +2212,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2235,7 +2238,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2261,7 +2264,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2287,7 +2290,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2313,7 +2316,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2339,7 +2342,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2365,7 +2368,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2391,7 +2394,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2417,7 +2420,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2443,7 +2446,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2469,7 +2472,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2495,7 +2498,7 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2521,7 +2524,7 @@
         <v>-50.42</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2547,7 +2550,33 @@
         <v>-50.47</v>
       </c>
       <c r="J74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>82</v>
+      </c>
+      <c r="C75">
+        <v>12.91</v>
+      </c>
+      <c r="D75">
+        <v>0.33</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>10.93</v>
+      </c>
+      <c r="H75">
+        <v>-51.28</v>
+      </c>
+      <c r="J75" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -623,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +687,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -707,7 +713,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -733,7 +739,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -759,7 +765,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -785,7 +791,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -811,7 +817,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -837,7 +843,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -863,7 +869,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -889,7 +895,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -915,7 +921,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -941,7 +947,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -967,7 +973,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -993,7 +999,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1019,7 +1025,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1045,7 +1051,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1071,7 +1077,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1097,7 +1103,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1123,7 +1129,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1149,7 +1155,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1175,7 +1181,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1201,7 +1207,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1227,7 +1233,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1253,7 +1259,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1279,7 +1285,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1305,7 +1311,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1331,7 +1337,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1357,7 +1363,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1383,7 +1389,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1409,7 +1415,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1435,7 +1441,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1461,7 +1467,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1487,7 +1493,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1513,7 +1519,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1539,7 +1545,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1565,7 +1571,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1591,7 +1597,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1617,7 +1623,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1643,7 +1649,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1669,7 +1675,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1695,7 +1701,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1721,7 +1727,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1747,7 +1753,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1773,7 +1779,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1799,7 +1805,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1825,7 +1831,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1851,7 +1857,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1877,7 +1883,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1903,7 +1909,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1926,7 +1932,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1952,7 +1958,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1978,7 +1984,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2004,7 +2010,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2030,7 +2036,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2056,7 +2062,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2082,7 +2088,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2108,7 +2114,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2134,7 +2140,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2160,7 +2166,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2186,7 +2192,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2212,7 +2218,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2238,7 +2244,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2264,7 +2270,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2290,7 +2296,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2316,7 +2322,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2342,7 +2348,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2368,7 +2374,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2394,7 +2400,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2420,7 +2426,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2446,7 +2452,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2472,7 +2478,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2498,7 +2504,7 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2524,7 +2530,7 @@
         <v>-50.42</v>
       </c>
       <c r="J73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2550,7 +2556,7 @@
         <v>-50.47</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2576,7 +2582,59 @@
         <v>-51.28</v>
       </c>
       <c r="J75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>83</v>
+      </c>
+      <c r="C76">
+        <v>12.88</v>
+      </c>
+      <c r="D76">
+        <v>0.32</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H76">
+        <v>-52.13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>12.84</v>
+      </c>
+      <c r="D77">
+        <v>0.32</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>8.44</v>
+      </c>
+      <c r="H77">
+        <v>-52.89</v>
+      </c>
+      <c r="J77" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +690,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -713,7 +716,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -739,7 +742,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -765,7 +768,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -791,7 +794,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -817,7 +820,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -843,7 +846,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -869,7 +872,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -895,7 +898,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -921,7 +924,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -947,7 +950,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -973,7 +976,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -999,7 +1002,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1025,7 +1028,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1051,7 +1054,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1077,7 +1080,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1103,7 +1106,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1129,7 +1132,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1155,7 +1158,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1181,7 +1184,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1207,7 +1210,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1233,7 +1236,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1259,7 +1262,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1285,7 +1288,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1311,7 +1314,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1337,7 +1340,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1363,7 +1366,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1389,7 +1392,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1415,7 +1418,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1441,7 +1444,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1467,7 +1470,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1493,7 +1496,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1519,7 +1522,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1545,7 +1548,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1571,7 +1574,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1597,7 +1600,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1623,7 +1626,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1649,7 +1652,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1675,7 +1678,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1701,7 +1704,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1727,7 +1730,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1753,7 +1756,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1779,7 +1782,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1805,7 +1808,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1831,7 +1834,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1857,7 +1860,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1883,7 +1886,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1909,7 +1912,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1932,7 +1935,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1958,7 +1961,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1984,7 +1987,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2010,7 +2013,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2036,7 +2039,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2062,7 +2065,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2088,7 +2091,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2114,7 +2117,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2140,7 +2143,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2166,7 +2169,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2192,7 +2195,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2218,7 +2221,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2244,7 +2247,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2270,7 +2273,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2296,7 +2299,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2322,7 +2325,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2348,7 +2351,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2374,7 +2377,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2400,7 +2403,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2426,7 +2429,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2452,7 +2455,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2478,7 +2481,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2504,7 +2507,7 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2530,7 +2533,7 @@
         <v>-50.42</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2556,7 +2559,7 @@
         <v>-50.47</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2582,7 +2585,7 @@
         <v>-51.28</v>
       </c>
       <c r="J75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2608,7 +2611,7 @@
         <v>-52.13</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2634,7 +2637,33 @@
         <v>-52.89</v>
       </c>
       <c r="J77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>85</v>
+      </c>
+      <c r="C78">
+        <v>12.8</v>
+      </c>
+      <c r="D78">
+        <v>0.31</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>6.78</v>
+      </c>
+      <c r="H78">
+        <v>-53.92</v>
+      </c>
+      <c r="J78" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -632,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +696,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -716,7 +722,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -742,7 +748,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -768,7 +774,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -794,7 +800,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -820,7 +826,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -846,7 +852,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -872,7 +878,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -898,7 +904,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -924,7 +930,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -950,7 +956,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -976,7 +982,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1002,7 +1008,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1028,7 +1034,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1054,7 +1060,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1080,7 +1086,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1106,7 +1112,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1138,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1158,7 +1164,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1184,7 +1190,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,7 +1216,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1236,7 +1242,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1262,7 +1268,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1288,7 +1294,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,7 +1320,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1340,7 +1346,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1366,7 +1372,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1392,7 +1398,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1418,7 +1424,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1444,7 +1450,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1470,7 +1476,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1496,7 +1502,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1522,7 +1528,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1548,7 +1554,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1574,7 +1580,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1600,7 +1606,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1626,7 +1632,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1652,7 +1658,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1678,7 +1684,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1704,7 +1710,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1730,7 +1736,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1756,7 +1762,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,7 +1788,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1808,7 +1814,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1834,7 +1840,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1860,7 +1866,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1886,7 +1892,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1912,7 +1918,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1935,7 +1941,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1961,7 +1967,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1987,7 +1993,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2013,7 +2019,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2039,7 +2045,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2065,7 +2071,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2091,7 +2097,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2117,7 +2123,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2143,7 +2149,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2169,7 +2175,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2195,7 +2201,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2221,7 +2227,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2247,7 +2253,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2273,7 +2279,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2299,7 +2305,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2325,7 +2331,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2351,7 +2357,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2377,7 +2383,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2403,7 +2409,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2429,7 +2435,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2455,7 +2461,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2481,7 +2487,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2507,7 +2513,7 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2533,7 +2539,7 @@
         <v>-50.42</v>
       </c>
       <c r="J73" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2559,7 +2565,7 @@
         <v>-50.47</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2585,7 +2591,7 @@
         <v>-51.28</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2611,7 +2617,7 @@
         <v>-52.13</v>
       </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2637,7 +2643,7 @@
         <v>-52.89</v>
       </c>
       <c r="J77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2663,7 +2669,59 @@
         <v>-53.92</v>
       </c>
       <c r="J78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>86</v>
+      </c>
+      <c r="C79">
+        <v>12.76</v>
+      </c>
+      <c r="D79">
+        <v>0.31</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>5.7</v>
+      </c>
+      <c r="H79">
+        <v>-54.6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80">
+        <v>12.72</v>
+      </c>
+      <c r="D80">
+        <v>0.31</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>4.74</v>
+      </c>
+      <c r="H80">
+        <v>-55.18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +699,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -722,7 +725,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -748,7 +751,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -774,7 +777,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -800,7 +803,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -826,7 +829,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -852,7 +855,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -878,7 +881,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -904,7 +907,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -930,7 +933,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -956,7 +959,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -982,7 +985,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1008,7 +1011,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1034,7 +1037,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1060,7 +1063,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1086,7 +1089,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1112,7 +1115,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1138,7 +1141,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1167,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1190,7 +1193,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1216,7 +1219,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1242,7 +1245,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1268,7 +1271,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1294,7 +1297,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1320,7 +1323,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1346,7 +1349,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1372,7 +1375,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1398,7 +1401,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1424,7 +1427,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1450,7 +1453,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1476,7 +1479,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1502,7 +1505,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1528,7 +1531,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1554,7 +1557,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1580,7 +1583,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1606,7 +1609,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1632,7 +1635,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1658,7 +1661,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1684,7 +1687,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1710,7 +1713,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1736,7 +1739,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1762,7 +1765,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1788,7 +1791,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,7 +1817,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1840,7 +1843,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1866,7 +1869,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1892,7 +1895,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1918,7 +1921,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1941,7 +1944,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1967,7 +1970,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1993,7 +1996,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2019,7 +2022,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2045,7 +2048,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2071,7 +2074,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2097,7 +2100,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2123,7 +2126,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2149,7 +2152,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2175,7 +2178,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2201,7 +2204,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2227,7 +2230,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2253,7 +2256,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2279,7 +2282,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2305,7 +2308,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2331,7 +2334,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2357,7 +2360,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2383,7 +2386,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2409,7 +2412,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2435,7 +2438,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2461,7 +2464,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2487,7 +2490,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2513,7 +2516,7 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2539,7 +2542,7 @@
         <v>-50.42</v>
       </c>
       <c r="J73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2565,7 +2568,7 @@
         <v>-50.47</v>
       </c>
       <c r="J74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2591,7 +2594,7 @@
         <v>-51.28</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2617,7 +2620,7 @@
         <v>-52.13</v>
       </c>
       <c r="J76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2643,7 +2646,7 @@
         <v>-52.89</v>
       </c>
       <c r="J77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2669,7 +2672,7 @@
         <v>-53.92</v>
       </c>
       <c r="J78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2695,7 +2698,7 @@
         <v>-54.6</v>
       </c>
       <c r="J79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2721,7 +2724,33 @@
         <v>-55.18</v>
       </c>
       <c r="J80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>88</v>
+      </c>
+      <c r="C81">
+        <v>13.24</v>
+      </c>
+      <c r="D81">
+        <v>0.31</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>5.38</v>
+      </c>
+      <c r="H81">
+        <v>-54.77</v>
+      </c>
+      <c r="J81" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +705,7 @@
         <v>-50.77</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -725,7 +731,7 @@
         <v>-50.85</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -751,7 +757,7 @@
         <v>-50.97</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -777,7 +783,7 @@
         <v>-51.01</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -803,7 +809,7 @@
         <v>-51.08</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -829,7 +835,7 @@
         <v>-51.25</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -855,7 +861,7 @@
         <v>-51.54</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -881,7 +887,7 @@
         <v>-51.35</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -907,7 +913,7 @@
         <v>-50.77</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -933,7 +939,7 @@
         <v>-49.07</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -959,7 +965,7 @@
         <v>-48.49</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -985,7 +991,7 @@
         <v>-48.31</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1011,7 +1017,7 @@
         <v>-48.02</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1037,7 +1043,7 @@
         <v>-47.26</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1063,7 +1069,7 @@
         <v>-46.48</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1089,7 +1095,7 @@
         <v>-46.21</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1115,7 +1121,7 @@
         <v>-47.09</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1141,7 +1147,7 @@
         <v>-48.2</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1167,7 +1173,7 @@
         <v>-49.23</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1193,7 +1199,7 @@
         <v>-49.92</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1219,7 +1225,7 @@
         <v>-50.1</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1245,7 +1251,7 @@
         <v>-50.4</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1271,7 +1277,7 @@
         <v>-50.74</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1297,7 +1303,7 @@
         <v>-50.75</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1323,7 +1329,7 @@
         <v>-50.89</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1349,7 +1355,7 @@
         <v>-50.85</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1375,7 +1381,7 @@
         <v>-50.9</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1401,7 +1407,7 @@
         <v>-50.93</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1427,7 +1433,7 @@
         <v>-51.02</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1453,7 +1459,7 @@
         <v>-51.04</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1479,7 +1485,7 @@
         <v>-51.15</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1505,7 +1511,7 @@
         <v>-51.17</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1531,7 +1537,7 @@
         <v>-50.43</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1557,7 +1563,7 @@
         <v>-48.75</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1583,7 +1589,7 @@
         <v>-47.89</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1609,7 +1615,7 @@
         <v>-47.42</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1635,7 +1641,7 @@
         <v>-46.02</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1661,7 +1667,7 @@
         <v>-47.25</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1687,7 +1693,7 @@
         <v>-48.19</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1713,7 +1719,7 @@
         <v>-49.5</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1739,7 +1745,7 @@
         <v>-49.35</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1765,7 +1771,7 @@
         <v>-49.52</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1791,7 +1797,7 @@
         <v>-50.04</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1817,7 +1823,7 @@
         <v>-50.08</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1843,7 +1849,7 @@
         <v>-50.14</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1869,7 +1875,7 @@
         <v>-50.31</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1895,7 +1901,7 @@
         <v>-50.55</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1921,7 +1927,7 @@
         <v>-50.69</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1944,7 +1950,7 @@
         <v>-50.77</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1970,7 +1976,7 @@
         <v>-51.02</v>
       </c>
       <c r="J51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1996,7 +2002,7 @@
         <v>-51.24</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2022,7 +2028,7 @@
         <v>-51.41</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2048,7 +2054,7 @@
         <v>-51.62</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2074,7 +2080,7 @@
         <v>-51.81</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2100,7 +2106,7 @@
         <v>-51.81</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2126,7 +2132,7 @@
         <v>-51.76</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2152,7 +2158,7 @@
         <v>-51.1</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2178,7 +2184,7 @@
         <v>-48.49</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2204,7 +2210,7 @@
         <v>-46.67</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2230,7 +2236,7 @@
         <v>-45.67</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2256,7 +2262,7 @@
         <v>-45.05</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2282,7 +2288,7 @@
         <v>-44.45</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2308,7 +2314,7 @@
         <v>-46.58</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2334,7 +2340,7 @@
         <v>-47.26</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2360,7 +2366,7 @@
         <v>-47.77</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2386,7 +2392,7 @@
         <v>-48.72</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2412,7 +2418,7 @@
         <v>-49.37</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2438,7 +2444,7 @@
         <v>-50.05</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2464,7 +2470,7 @@
         <v>-50.37</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2490,7 +2496,7 @@
         <v>-50.41</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2516,7 +2522,7 @@
         <v>-50.5</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2542,7 +2548,7 @@
         <v>-50.42</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2568,7 +2574,7 @@
         <v>-50.47</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2594,7 +2600,7 @@
         <v>-51.28</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2620,7 +2626,7 @@
         <v>-52.13</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2646,7 +2652,7 @@
         <v>-52.89</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2672,7 +2678,7 @@
         <v>-53.92</v>
       </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2698,7 +2704,7 @@
         <v>-54.6</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2724,7 +2730,7 @@
         <v>-55.18</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2750,7 +2756,59 @@
         <v>-54.77</v>
       </c>
       <c r="J81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>89</v>
+      </c>
+      <c r="C82">
+        <v>13.6</v>
+      </c>
+      <c r="D82">
+        <v>0.33</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>10.9</v>
+      </c>
+      <c r="H82">
+        <v>-51.23</v>
+      </c>
+      <c r="J82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83">
+        <v>13.62</v>
+      </c>
+      <c r="D83">
+        <v>0.38</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>16.01</v>
+      </c>
+      <c r="H83">
+        <v>-47.54</v>
+      </c>
+      <c r="J83" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,250 +43,274 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/6/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/9/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:00:00 AM</t>
+    <t>11/10/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -647,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,22 +714,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>11.74</v>
+        <v>5.77</v>
       </c>
       <c r="H2">
-        <v>-50.77</v>
+        <v>-54.57</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -716,22 +740,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>12.9</v>
+        <v>12.88</v>
       </c>
       <c r="D3">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>11.62</v>
+        <v>6.16</v>
       </c>
       <c r="H3">
-        <v>-50.85</v>
+        <v>-54.34</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -742,22 +766,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>12.85</v>
+        <v>12.86</v>
       </c>
       <c r="D4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.44</v>
+        <v>5.92</v>
       </c>
       <c r="H4">
-        <v>-50.97</v>
+        <v>-54.47</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -768,22 +792,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>12.81</v>
+        <v>12.84</v>
       </c>
       <c r="D5">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.39</v>
+        <v>3.55</v>
       </c>
       <c r="H5">
-        <v>-51.01</v>
+        <v>-55.87</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -794,22 +818,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>12.76</v>
+        <v>12.8</v>
       </c>
       <c r="D6">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11.27</v>
+        <v>1.64</v>
       </c>
       <c r="H6">
-        <v>-51.08</v>
+        <v>-57.01</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -820,22 +844,22 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>12.72</v>
+        <v>12.76</v>
       </c>
       <c r="D7">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>-51.25</v>
+        <v>-57.68</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -846,22 +870,22 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>12.71</v>
+        <v>12.73</v>
       </c>
       <c r="D8">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10.57</v>
+        <v>-0.2</v>
       </c>
       <c r="H8">
-        <v>-51.54</v>
+        <v>-58.09</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -872,22 +896,22 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>12.72</v>
+        <v>13.25</v>
       </c>
       <c r="D9">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.87</v>
+        <v>0.62</v>
       </c>
       <c r="H9">
-        <v>-51.35</v>
+        <v>-57.59</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -898,22 +922,22 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>13.3</v>
+        <v>13.58</v>
       </c>
       <c r="D10">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.69</v>
+        <v>6.13</v>
       </c>
       <c r="H10">
-        <v>-50.77</v>
+        <v>-54.28</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -924,22 +948,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>14.12</v>
+        <v>14.32</v>
       </c>
       <c r="H11">
-        <v>-49.07</v>
+        <v>-48.84</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -953,19 +977,19 @@
         <v>13.63</v>
       </c>
       <c r="D12">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14.9</v>
+        <v>18.3</v>
       </c>
       <c r="H12">
-        <v>-48.49</v>
+        <v>-45.86</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -976,22 +1000,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D13">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15.15</v>
+        <v>20.23</v>
       </c>
       <c r="H13">
-        <v>-48.31</v>
+        <v>-44.31</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1002,22 +1026,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>13.64</v>
+        <v>13.65</v>
       </c>
       <c r="D14">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15.54</v>
+        <v>20.73</v>
       </c>
       <c r="H14">
-        <v>-48.02</v>
+        <v>-43.97</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1028,22 +1052,22 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="D15">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.57</v>
+        <v>21.1</v>
       </c>
       <c r="H15">
-        <v>-47.26</v>
+        <v>-43.67</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1054,22 +1078,22 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="D16">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.58</v>
+        <v>21.41</v>
       </c>
       <c r="H16">
-        <v>-46.48</v>
+        <v>-43.38</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1080,22 +1104,22 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="D17">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.87</v>
+        <v>20.31</v>
       </c>
       <c r="H17">
-        <v>-46.21</v>
+        <v>-44.24</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1106,22 +1130,22 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>13.65</v>
+        <v>13.68</v>
       </c>
       <c r="D18">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.77</v>
+        <v>18.91</v>
       </c>
       <c r="H18">
-        <v>-47.09</v>
+        <v>-45.37</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,22 +1156,22 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>13.57</v>
+        <v>13.66</v>
       </c>
       <c r="D19">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.32</v>
+        <v>16.85</v>
       </c>
       <c r="H19">
-        <v>-48.2</v>
+        <v>-46.93</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1158,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>13.1</v>
+        <v>13.14</v>
       </c>
       <c r="D20">
         <v>0.35</v>
@@ -1167,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>13.93</v>
+        <v>13.31</v>
       </c>
       <c r="H20">
-        <v>-49.23</v>
+        <v>-49.63</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1184,22 +1208,22 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>13.05</v>
+        <v>13.04</v>
       </c>
       <c r="D21">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12.98</v>
+        <v>10.14</v>
       </c>
       <c r="H21">
-        <v>-49.92</v>
+        <v>-51.8</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,22 +1234,22 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.72</v>
+        <v>8.23</v>
       </c>
       <c r="H22">
-        <v>-50.1</v>
+        <v>-53.03</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1236,22 +1260,22 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>12.96</v>
       </c>
       <c r="D23">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.29</v>
+        <v>6.57</v>
       </c>
       <c r="H23">
-        <v>-50.4</v>
+        <v>-54.07</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1262,22 +1286,22 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>12.98</v>
+        <v>12.93</v>
       </c>
       <c r="D24">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11.78</v>
+        <v>5.43</v>
       </c>
       <c r="H24">
-        <v>-50.74</v>
+        <v>-54.77</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1288,22 +1312,22 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>12.96</v>
+        <v>12.89</v>
       </c>
       <c r="D25">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>11.78</v>
+        <v>4.46</v>
       </c>
       <c r="H25">
-        <v>-50.75</v>
+        <v>-55.35</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,22 +1338,22 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>12.95</v>
+        <v>12.88</v>
       </c>
       <c r="D26">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>11.55</v>
+        <v>3.43</v>
       </c>
       <c r="H26">
-        <v>-50.89</v>
+        <v>-55.96</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1340,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>12.94</v>
+        <v>12.85</v>
       </c>
       <c r="D27">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>11.62</v>
+        <v>2.42</v>
       </c>
       <c r="H27">
-        <v>-50.85</v>
+        <v>-56.56</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1366,22 +1390,22 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>12.92</v>
+        <v>12.82</v>
       </c>
       <c r="D28">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>11.54</v>
+        <v>2.29</v>
       </c>
       <c r="H28">
-        <v>-50.9</v>
+        <v>-56.64</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1392,22 +1416,22 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>12.9</v>
+        <v>12.79</v>
       </c>
       <c r="D29">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>11.51</v>
+        <v>4.28</v>
       </c>
       <c r="H29">
-        <v>-50.93</v>
+        <v>-55.48</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1418,22 +1442,22 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>12.88</v>
+        <v>12.77</v>
       </c>
       <c r="D30">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>11.36</v>
+        <v>3.06</v>
       </c>
       <c r="H30">
-        <v>-51.02</v>
+        <v>-56.18</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1444,22 +1468,22 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>12.86</v>
+        <v>12.73</v>
       </c>
       <c r="D31">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>11.34</v>
+        <v>1.51</v>
       </c>
       <c r="H31">
-        <v>-51.04</v>
+        <v>-57.09</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1470,22 +1494,22 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>12.84</v>
+        <v>12.69</v>
       </c>
       <c r="D32">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>11.18</v>
+        <v>0.77</v>
       </c>
       <c r="H32">
-        <v>-51.15</v>
+        <v>-57.52</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1496,22 +1520,22 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>13.09</v>
+        <v>13.23</v>
       </c>
       <c r="D33">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>11.11</v>
+        <v>1.26</v>
       </c>
       <c r="H33">
-        <v>-51.17</v>
+        <v>-57.22</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1522,22 +1546,22 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D34">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>12.16</v>
+        <v>7.51</v>
       </c>
       <c r="H34">
-        <v>-50.43</v>
+        <v>-53.44</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1548,22 +1572,22 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>13.62</v>
+        <v>13.6</v>
       </c>
       <c r="D35">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>14.54</v>
+        <v>13.51</v>
       </c>
       <c r="H35">
-        <v>-48.75</v>
+        <v>-49.45</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1577,19 +1601,19 @@
         <v>13.63</v>
       </c>
       <c r="D36">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>15.64</v>
+        <v>17.85</v>
       </c>
       <c r="H36">
-        <v>-47.89</v>
+        <v>-46.18</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1600,22 +1624,22 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D37">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>16.33</v>
+        <v>18.87</v>
       </c>
       <c r="H37">
-        <v>-47.42</v>
+        <v>-45.43</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1626,22 +1650,22 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>13.64</v>
+        <v>13.65</v>
       </c>
       <c r="D38">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>18.17</v>
+        <v>19.3</v>
       </c>
       <c r="H38">
-        <v>-46.02</v>
+        <v>-45.08</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1652,22 +1676,22 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>13.64</v>
+        <v>13.65</v>
       </c>
       <c r="D39">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>16.56</v>
+        <v>18.66</v>
       </c>
       <c r="H39">
-        <v>-47.25</v>
+        <v>-45.69</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1678,22 +1702,22 @@
         <v>47</v>
       </c>
       <c r="C40">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="D40">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>15.28</v>
+        <v>18.69</v>
       </c>
       <c r="H40">
-        <v>-48.19</v>
+        <v>-45.65</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1704,22 +1728,22 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>13.54</v>
+        <v>13.67</v>
       </c>
       <c r="D41">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>13.51</v>
+        <v>19.04</v>
       </c>
       <c r="H41">
-        <v>-49.5</v>
+        <v>-45.36</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1730,22 +1754,22 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>13.62</v>
+        <v>13.66</v>
       </c>
       <c r="D42">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>13.77</v>
+        <v>18.6</v>
       </c>
       <c r="H42">
-        <v>-49.35</v>
+        <v>-45.71</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1756,22 +1780,22 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>13.32</v>
+        <v>13.65</v>
       </c>
       <c r="D43">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>13.53</v>
+        <v>17.11</v>
       </c>
       <c r="H43">
-        <v>-49.52</v>
+        <v>-46.82</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,22 +1806,22 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>13.05</v>
+        <v>13.14</v>
       </c>
       <c r="D44">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>12.78</v>
+        <v>14.18</v>
       </c>
       <c r="H44">
-        <v>-50.04</v>
+        <v>-49.04</v>
       </c>
       <c r="J44" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1808,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>13.02</v>
+        <v>13.05</v>
       </c>
       <c r="D45">
         <v>0.34</v>
@@ -1817,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>12.76</v>
+        <v>12.84</v>
       </c>
       <c r="H45">
-        <v>-50.08</v>
+        <v>-50.03</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1834,7 +1858,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="D46">
         <v>0.34</v>
@@ -1843,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>12.66</v>
+        <v>11.76</v>
       </c>
       <c r="H46">
-        <v>-50.14</v>
+        <v>-50.75</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1863,19 +1887,19 @@
         <v>12.99</v>
       </c>
       <c r="D47">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>12.41</v>
+        <v>10.83</v>
       </c>
       <c r="H47">
-        <v>-50.31</v>
+        <v>-51.36</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1886,22 +1910,22 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D48">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>12.07</v>
+        <v>9.82</v>
       </c>
       <c r="H48">
-        <v>-50.55</v>
+        <v>-52.02</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1912,22 +1936,22 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="D49">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>11.86</v>
+        <v>9.01</v>
       </c>
       <c r="H49">
-        <v>-50.69</v>
+        <v>-52.54</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1937,20 +1961,23 @@
       <c r="B50" t="s">
         <v>57</v>
       </c>
+      <c r="C50">
+        <v>12.93</v>
+      </c>
       <c r="D50">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>11.74</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <v>-50.77</v>
+        <v>-53.18</v>
       </c>
       <c r="J50" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1961,22 +1988,22 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D51">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>11.33</v>
+        <v>7.44</v>
       </c>
       <c r="H51">
-        <v>-51.02</v>
+        <v>-53.54</v>
       </c>
       <c r="J51" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1987,22 +2014,22 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>12.89</v>
+        <v>12.88</v>
       </c>
       <c r="D52">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>11.02</v>
+        <v>7.67</v>
       </c>
       <c r="H52">
-        <v>-51.24</v>
+        <v>-53.4</v>
       </c>
       <c r="J52" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2013,22 +2040,22 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>12.86</v>
+        <v>12.85</v>
       </c>
       <c r="D53">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>10.76</v>
+        <v>7.56</v>
       </c>
       <c r="H53">
-        <v>-51.41</v>
+        <v>-53.46</v>
       </c>
       <c r="J53" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2042,19 +2069,19 @@
         <v>12.83</v>
       </c>
       <c r="D54">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>10.44</v>
+        <v>6.92</v>
       </c>
       <c r="H54">
-        <v>-51.62</v>
+        <v>-53.85</v>
       </c>
       <c r="J54" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2065,22 +2092,22 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="D55">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>10.16</v>
+        <v>5.86</v>
       </c>
       <c r="H55">
-        <v>-51.81</v>
+        <v>-54.5</v>
       </c>
       <c r="J55" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2091,22 +2118,22 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>12.78</v>
+        <v>12.75</v>
       </c>
       <c r="D56">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>10.15</v>
+        <v>4.87</v>
       </c>
       <c r="H56">
-        <v>-51.81</v>
+        <v>-55.1</v>
       </c>
       <c r="J56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2117,22 +2144,22 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>13.12</v>
+        <v>13.17</v>
       </c>
       <c r="D57">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>10.19</v>
+        <v>4.49</v>
       </c>
       <c r="H57">
-        <v>-51.76</v>
+        <v>-55.3</v>
       </c>
       <c r="J57" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2143,7 +2170,7 @@
         <v>65</v>
       </c>
       <c r="C58">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D58">
         <v>0.33</v>
@@ -2152,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>11.15</v>
+        <v>8.81</v>
       </c>
       <c r="H58">
-        <v>-51.1</v>
+        <v>-52.57</v>
       </c>
       <c r="J58" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2172,19 +2199,19 @@
         <v>13.61</v>
       </c>
       <c r="D59">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>14.87</v>
+        <v>15.13</v>
       </c>
       <c r="H59">
-        <v>-48.49</v>
+        <v>-48.27</v>
       </c>
       <c r="J59" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2204,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>17.27</v>
+        <v>17.46</v>
       </c>
       <c r="H60">
-        <v>-46.67</v>
+        <v>-46.53</v>
       </c>
       <c r="J60" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2224,19 +2251,19 @@
         <v>13.65</v>
       </c>
       <c r="D61">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>18.53</v>
+        <v>17.81</v>
       </c>
       <c r="H61">
-        <v>-45.67</v>
+        <v>-46.3</v>
       </c>
       <c r="J61" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2247,22 +2274,22 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D62">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>19.31</v>
+        <v>18.34</v>
       </c>
       <c r="H62">
-        <v>-45.05</v>
+        <v>-45.95</v>
       </c>
       <c r="J62" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2273,22 +2300,22 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D63">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>20.01</v>
+        <v>18.86</v>
       </c>
       <c r="H63">
-        <v>-44.45</v>
+        <v>-45.53</v>
       </c>
       <c r="J63" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2302,19 +2329,19 @@
         <v>13.66</v>
       </c>
       <c r="D64">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>17.39</v>
+        <v>19.5</v>
       </c>
       <c r="H64">
-        <v>-46.58</v>
+        <v>-45.02</v>
       </c>
       <c r="J64" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2325,22 +2352,22 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>13.64</v>
+        <v>13.67</v>
       </c>
       <c r="D65">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>16.62</v>
+        <v>19.65</v>
       </c>
       <c r="H65">
-        <v>-47.26</v>
+        <v>-44.85</v>
       </c>
       <c r="J65" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2351,22 +2378,22 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>13.44</v>
+        <v>13.67</v>
       </c>
       <c r="D66">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>15.92</v>
+        <v>19.05</v>
       </c>
       <c r="H66">
-        <v>-47.77</v>
+        <v>-45.31</v>
       </c>
       <c r="J66" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2377,22 +2404,22 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>13.11</v>
+        <v>13.63</v>
       </c>
       <c r="D67">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>14.65</v>
+        <v>17.15</v>
       </c>
       <c r="H67">
-        <v>-48.72</v>
+        <v>-46.74</v>
       </c>
       <c r="J67" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2403,7 +2430,7 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>13.05</v>
+        <v>13.11</v>
       </c>
       <c r="D68">
         <v>0.35</v>
@@ -2412,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>13.74</v>
+        <v>13.44</v>
       </c>
       <c r="H68">
-        <v>-49.37</v>
+        <v>-49.55</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2429,22 +2456,22 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>13.02</v>
+        <v>13.04</v>
       </c>
       <c r="D69">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12.76</v>
+        <v>9.93</v>
       </c>
       <c r="H69">
-        <v>-50.05</v>
+        <v>-51.91</v>
       </c>
       <c r="J69" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2455,22 +2482,22 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>12.99</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>12.33</v>
+        <v>8.34</v>
       </c>
       <c r="H70">
-        <v>-50.37</v>
+        <v>-52.98</v>
       </c>
       <c r="J70" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2481,22 +2508,22 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D71">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>12.26</v>
+        <v>9.16</v>
       </c>
       <c r="H71">
-        <v>-50.41</v>
+        <v>-52.49</v>
       </c>
       <c r="J71" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2507,22 +2534,22 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="D72">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>12.14</v>
+        <v>10.53</v>
       </c>
       <c r="H72">
-        <v>-50.5</v>
+        <v>-51.61</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2533,22 +2560,22 @@
         <v>80</v>
       </c>
       <c r="C73">
-        <v>12.94</v>
+        <v>12.92</v>
       </c>
       <c r="D73">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>12.26</v>
+        <v>7.75</v>
       </c>
       <c r="H73">
-        <v>-50.42</v>
+        <v>-53.32</v>
       </c>
       <c r="J73" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2559,22 +2586,22 @@
         <v>81</v>
       </c>
       <c r="C74">
-        <v>12.93</v>
+        <v>12.9</v>
       </c>
       <c r="D74">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>12.2</v>
+        <v>6.74</v>
       </c>
       <c r="H74">
-        <v>-50.47</v>
+        <v>-53.97</v>
       </c>
       <c r="J74" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2585,22 +2612,22 @@
         <v>82</v>
       </c>
       <c r="C75">
-        <v>12.91</v>
+        <v>12.88</v>
       </c>
       <c r="D75">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>10.93</v>
+        <v>6.88</v>
       </c>
       <c r="H75">
-        <v>-51.28</v>
+        <v>-53.89</v>
       </c>
       <c r="J75" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2611,22 +2638,22 @@
         <v>83</v>
       </c>
       <c r="C76">
-        <v>12.88</v>
+        <v>12.86</v>
       </c>
       <c r="D76">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>9.640000000000001</v>
+        <v>6.46</v>
       </c>
       <c r="H76">
-        <v>-52.13</v>
+        <v>-54.14</v>
       </c>
       <c r="J76" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2637,22 +2664,22 @@
         <v>84</v>
       </c>
       <c r="C77">
-        <v>12.84</v>
+        <v>12.83</v>
       </c>
       <c r="D77">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>8.44</v>
+        <v>5.14</v>
       </c>
       <c r="H77">
-        <v>-52.89</v>
+        <v>-54.93</v>
       </c>
       <c r="J77" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2663,22 +2690,22 @@
         <v>85</v>
       </c>
       <c r="C78">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="D78">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>6.78</v>
+        <v>3.49</v>
       </c>
       <c r="H78">
-        <v>-53.92</v>
+        <v>-55.92</v>
       </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2689,22 +2716,22 @@
         <v>86</v>
       </c>
       <c r="C79">
-        <v>12.76</v>
+        <v>12.74</v>
       </c>
       <c r="D79">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="H79">
-        <v>-54.6</v>
+        <v>-56.65</v>
       </c>
       <c r="J79" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2715,22 +2742,22 @@
         <v>87</v>
       </c>
       <c r="C80">
-        <v>12.72</v>
+        <v>12.69</v>
       </c>
       <c r="D80">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>4.74</v>
+        <v>1.45</v>
       </c>
       <c r="H80">
-        <v>-55.18</v>
+        <v>-57.12</v>
       </c>
       <c r="J80" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2741,22 +2768,22 @@
         <v>88</v>
       </c>
       <c r="C81">
-        <v>13.24</v>
+        <v>13.2</v>
       </c>
       <c r="D81">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>5.38</v>
+        <v>1.94</v>
       </c>
       <c r="H81">
-        <v>-54.77</v>
+        <v>-56.82</v>
       </c>
       <c r="J81" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2767,22 +2794,22 @@
         <v>89</v>
       </c>
       <c r="C82">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D82">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>10.9</v>
+        <v>7.51</v>
       </c>
       <c r="H82">
-        <v>-51.23</v>
+        <v>-53.42</v>
       </c>
       <c r="J82" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2793,22 +2820,230 @@
         <v>90</v>
       </c>
       <c r="C83">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D83">
+        <v>0.35</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>13.44</v>
+      </c>
+      <c r="H83">
+        <v>-49.44</v>
+      </c>
+      <c r="J83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84">
+        <v>13.63</v>
+      </c>
+      <c r="D84">
         <v>0.38</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>16.01</v>
-      </c>
-      <c r="H83">
-        <v>-47.54</v>
-      </c>
-      <c r="J83" t="s">
-        <v>91</v>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>17.22</v>
+      </c>
+      <c r="H84">
+        <v>-46.7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85">
+        <v>13.64</v>
+      </c>
+      <c r="D85">
+        <v>0.39</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>17.73</v>
+      </c>
+      <c r="H85">
+        <v>-46.36</v>
+      </c>
+      <c r="J85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86">
+        <v>13.65</v>
+      </c>
+      <c r="D86">
+        <v>0.4</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>18.64</v>
+      </c>
+      <c r="H86">
+        <v>-45.7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87">
+        <v>13.65</v>
+      </c>
+      <c r="D87">
+        <v>0.4</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>19.26</v>
+      </c>
+      <c r="H87">
+        <v>-45.2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>13.66</v>
+      </c>
+      <c r="D88">
+        <v>0.41</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>19.54</v>
+      </c>
+      <c r="H88">
+        <v>-44.98</v>
+      </c>
+      <c r="J88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89">
+        <v>13.67</v>
+      </c>
+      <c r="D89">
+        <v>0.4</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>19.17</v>
+      </c>
+      <c r="H89">
+        <v>-45.25</v>
+      </c>
+      <c r="J89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90">
+        <v>13.67</v>
+      </c>
+      <c r="D90">
+        <v>0.4</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>18.57</v>
+      </c>
+      <c r="H90">
+        <v>-45.68</v>
+      </c>
+      <c r="J90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91">
+        <v>13.66</v>
+      </c>
+      <c r="D91">
+        <v>0.38</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>16.56</v>
+      </c>
+      <c r="H91">
+        <v>-47.23</v>
+      </c>
+      <c r="J91" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +732,7 @@
         <v>-54.57</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -755,7 +758,7 @@
         <v>-54.34</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -781,7 +784,7 @@
         <v>-54.47</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -807,7 +810,7 @@
         <v>-55.87</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -833,7 +836,7 @@
         <v>-57.01</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -859,7 +862,7 @@
         <v>-57.68</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -885,7 +888,7 @@
         <v>-58.09</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -911,7 +914,7 @@
         <v>-57.59</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -937,7 +940,7 @@
         <v>-54.28</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -963,7 +966,7 @@
         <v>-48.84</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -989,7 +992,7 @@
         <v>-45.86</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1015,7 +1018,7 @@
         <v>-44.31</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1041,7 +1044,7 @@
         <v>-43.97</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1067,7 +1070,7 @@
         <v>-43.67</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1093,7 +1096,7 @@
         <v>-43.38</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1119,7 +1122,7 @@
         <v>-44.24</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1145,7 +1148,7 @@
         <v>-45.37</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1171,7 +1174,7 @@
         <v>-46.93</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1197,7 +1200,7 @@
         <v>-49.63</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1223,7 +1226,7 @@
         <v>-51.8</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1249,7 +1252,7 @@
         <v>-53.03</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1275,7 +1278,7 @@
         <v>-54.07</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1301,7 +1304,7 @@
         <v>-54.77</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1327,7 +1330,7 @@
         <v>-55.35</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1353,7 +1356,7 @@
         <v>-55.96</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1379,7 +1382,7 @@
         <v>-56.56</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1405,7 +1408,7 @@
         <v>-56.64</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1431,7 +1434,7 @@
         <v>-55.48</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1457,7 +1460,7 @@
         <v>-56.18</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1483,7 +1486,7 @@
         <v>-57.09</v>
       </c>
       <c r="J31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1509,7 +1512,7 @@
         <v>-57.52</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1535,7 +1538,7 @@
         <v>-57.22</v>
       </c>
       <c r="J33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1561,7 +1564,7 @@
         <v>-53.44</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1587,7 +1590,7 @@
         <v>-49.45</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1613,7 +1616,7 @@
         <v>-46.18</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1639,7 +1642,7 @@
         <v>-45.43</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1665,7 +1668,7 @@
         <v>-45.08</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1691,7 +1694,7 @@
         <v>-45.69</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1717,7 +1720,7 @@
         <v>-45.65</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1743,7 +1746,7 @@
         <v>-45.36</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1769,7 +1772,7 @@
         <v>-45.71</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1795,7 +1798,7 @@
         <v>-46.82</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1821,7 +1824,7 @@
         <v>-49.04</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1847,7 +1850,7 @@
         <v>-50.03</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1873,7 +1876,7 @@
         <v>-50.75</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1899,7 +1902,7 @@
         <v>-51.36</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1925,7 +1928,7 @@
         <v>-52.02</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1951,7 +1954,7 @@
         <v>-52.54</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1977,7 +1980,7 @@
         <v>-53.18</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2003,7 +2006,7 @@
         <v>-53.54</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2029,7 +2032,7 @@
         <v>-53.4</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2055,7 +2058,7 @@
         <v>-53.46</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2081,7 +2084,7 @@
         <v>-53.85</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2107,7 +2110,7 @@
         <v>-54.5</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2133,7 +2136,7 @@
         <v>-55.1</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2159,7 +2162,7 @@
         <v>-55.3</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2185,7 +2188,7 @@
         <v>-52.57</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2211,7 +2214,7 @@
         <v>-48.27</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2237,7 +2240,7 @@
         <v>-46.53</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2263,7 +2266,7 @@
         <v>-46.3</v>
       </c>
       <c r="J61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2289,7 +2292,7 @@
         <v>-45.95</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2315,7 +2318,7 @@
         <v>-45.53</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2341,7 +2344,7 @@
         <v>-45.02</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2367,7 +2370,7 @@
         <v>-44.85</v>
       </c>
       <c r="J65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2393,7 +2396,7 @@
         <v>-45.31</v>
       </c>
       <c r="J66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2419,7 +2422,7 @@
         <v>-46.74</v>
       </c>
       <c r="J67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2445,7 +2448,7 @@
         <v>-49.55</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2471,7 +2474,7 @@
         <v>-51.91</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2497,7 +2500,7 @@
         <v>-52.98</v>
       </c>
       <c r="J70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2523,7 +2526,7 @@
         <v>-52.49</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2549,7 +2552,7 @@
         <v>-51.61</v>
       </c>
       <c r="J72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2575,7 +2578,7 @@
         <v>-53.32</v>
       </c>
       <c r="J73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2601,7 +2604,7 @@
         <v>-53.97</v>
       </c>
       <c r="J74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2627,7 +2630,7 @@
         <v>-53.89</v>
       </c>
       <c r="J75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2653,7 +2656,7 @@
         <v>-54.14</v>
       </c>
       <c r="J76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2679,7 +2682,7 @@
         <v>-54.93</v>
       </c>
       <c r="J77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2705,7 +2708,7 @@
         <v>-55.92</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2731,7 +2734,7 @@
         <v>-56.65</v>
       </c>
       <c r="J79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2757,7 +2760,7 @@
         <v>-57.12</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2783,7 +2786,7 @@
         <v>-56.82</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2809,7 +2812,7 @@
         <v>-53.42</v>
       </c>
       <c r="J82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2835,7 +2838,7 @@
         <v>-49.44</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2861,7 +2864,7 @@
         <v>-46.7</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2887,7 +2890,7 @@
         <v>-46.36</v>
       </c>
       <c r="J85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2913,7 +2916,7 @@
         <v>-45.7</v>
       </c>
       <c r="J86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2939,7 +2942,7 @@
         <v>-45.2</v>
       </c>
       <c r="J87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2965,7 +2968,7 @@
         <v>-44.98</v>
       </c>
       <c r="J88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2991,7 +2994,7 @@
         <v>-45.25</v>
       </c>
       <c r="J89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3017,7 +3020,7 @@
         <v>-45.68</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3043,7 +3046,33 @@
         <v>-47.23</v>
       </c>
       <c r="J91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>99</v>
+      </c>
+      <c r="C92">
+        <v>13.13</v>
+      </c>
+      <c r="D92">
+        <v>0.35</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>13.17</v>
+      </c>
+      <c r="H92">
+        <v>-49.74</v>
+      </c>
+      <c r="J92" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,277 +43,223 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/10/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 PM</t>
+    <t>11/14/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -674,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,22 +663,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>12.9</v>
+        <v>12.91</v>
       </c>
       <c r="D2">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.77</v>
+        <v>8.59</v>
       </c>
       <c r="H2">
-        <v>-54.57</v>
+        <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -743,22 +689,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>12.88</v>
+        <v>12.9</v>
       </c>
       <c r="D3">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.16</v>
+        <v>10.04</v>
       </c>
       <c r="H3">
-        <v>-54.34</v>
+        <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -769,22 +715,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>12.86</v>
+        <v>12.88</v>
       </c>
       <c r="D4">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.92</v>
+        <v>9.91</v>
       </c>
       <c r="H4">
-        <v>-54.47</v>
+        <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -795,22 +741,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>12.84</v>
+        <v>12.86</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.55</v>
+        <v>9.5</v>
       </c>
       <c r="H5">
-        <v>-55.87</v>
+        <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -821,22 +767,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>12.83</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.64</v>
+        <v>9.77</v>
       </c>
       <c r="H6">
-        <v>-57.01</v>
+        <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -847,22 +793,22 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>12.76</v>
+        <v>12.81</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="H7">
-        <v>-57.68</v>
+        <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -873,22 +819,22 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>12.73</v>
+        <v>12.77</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2</v>
+        <v>8.33</v>
       </c>
       <c r="H8">
-        <v>-58.09</v>
+        <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -899,22 +845,22 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>13.25</v>
+        <v>13.23</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.62</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H9">
-        <v>-57.59</v>
+        <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -925,22 +871,22 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D10">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6.13</v>
+        <v>10.53</v>
       </c>
       <c r="H10">
-        <v>-54.28</v>
+        <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -951,22 +897,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D11">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>14.32</v>
+        <v>15.04</v>
       </c>
       <c r="H11">
-        <v>-48.84</v>
+        <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -977,22 +923,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.3</v>
+        <v>17.14</v>
       </c>
       <c r="H12">
-        <v>-45.86</v>
+        <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1003,22 +949,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>13.64</v>
+        <v>13.65</v>
       </c>
       <c r="D13">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.23</v>
+        <v>17.21</v>
       </c>
       <c r="H13">
-        <v>-44.31</v>
+        <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1032,19 +978,19 @@
         <v>13.65</v>
       </c>
       <c r="D14">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.73</v>
+        <v>17.94</v>
       </c>
       <c r="H14">
-        <v>-43.97</v>
+        <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1055,22 +1001,22 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D15">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.1</v>
+        <v>18.11</v>
       </c>
       <c r="H15">
-        <v>-43.67</v>
+        <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1081,22 +1027,22 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="D16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.41</v>
+        <v>18.72</v>
       </c>
       <c r="H16">
-        <v>-43.38</v>
+        <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1107,22 +1053,22 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>13.68</v>
+        <v>13.67</v>
       </c>
       <c r="D17">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.31</v>
+        <v>18.69</v>
       </c>
       <c r="H17">
-        <v>-44.24</v>
+        <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1133,22 +1079,22 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>13.68</v>
+        <v>13.67</v>
       </c>
       <c r="D18">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.91</v>
+        <v>18.03</v>
       </c>
       <c r="H18">
-        <v>-45.37</v>
+        <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1159,22 +1105,22 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>13.66</v>
+        <v>13.42</v>
       </c>
       <c r="D19">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.85</v>
+        <v>15.36</v>
       </c>
       <c r="H19">
-        <v>-46.93</v>
+        <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1185,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>13.14</v>
+        <v>13.1</v>
       </c>
       <c r="D20">
         <v>0.35</v>
@@ -1194,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>13.31</v>
+        <v>13.34</v>
       </c>
       <c r="H20">
-        <v>-49.63</v>
+        <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1214,19 +1160,19 @@
         <v>13.04</v>
       </c>
       <c r="D21">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.14</v>
+        <v>12.85</v>
       </c>
       <c r="H21">
-        <v>-51.8</v>
+        <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1237,22 +1183,22 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>13.01</v>
       </c>
       <c r="D22">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8.23</v>
+        <v>12.34</v>
       </c>
       <c r="H22">
-        <v>-53.03</v>
+        <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1263,22 +1209,22 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>12.96</v>
+        <v>12.98</v>
       </c>
       <c r="D23">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>6.57</v>
+        <v>11.94</v>
       </c>
       <c r="H23">
-        <v>-54.07</v>
+        <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1289,22 +1235,22 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>12.93</v>
+        <v>12.96</v>
       </c>
       <c r="D24">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.43</v>
+        <v>11.69</v>
       </c>
       <c r="H24">
-        <v>-54.77</v>
+        <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1315,22 +1261,22 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>12.89</v>
+        <v>12.95</v>
       </c>
       <c r="D25">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.46</v>
+        <v>11.68</v>
       </c>
       <c r="H25">
-        <v>-55.35</v>
+        <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1341,22 +1287,22 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>12.88</v>
+        <v>12.94</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.43</v>
+        <v>11.18</v>
       </c>
       <c r="H26">
-        <v>-55.96</v>
+        <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1367,22 +1313,22 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>12.85</v>
+        <v>12.92</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2.42</v>
+        <v>9.08</v>
       </c>
       <c r="H27">
-        <v>-56.56</v>
+        <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1393,22 +1339,22 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>12.82</v>
+        <v>12.88</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.29</v>
+        <v>7.37</v>
       </c>
       <c r="H28">
-        <v>-56.64</v>
+        <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1419,22 +1365,22 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>12.79</v>
+        <v>12.84</v>
       </c>
       <c r="D29">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4.28</v>
+        <v>6.55</v>
       </c>
       <c r="H29">
-        <v>-55.48</v>
+        <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1445,22 +1391,22 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>12.77</v>
+        <v>12.81</v>
       </c>
       <c r="D30">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>3.06</v>
+        <v>6.11</v>
       </c>
       <c r="H30">
-        <v>-56.18</v>
+        <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1471,22 +1417,22 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>12.73</v>
+        <v>12.77</v>
       </c>
       <c r="D31">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.51</v>
+        <v>6.48</v>
       </c>
       <c r="H31">
-        <v>-57.09</v>
+        <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1497,22 +1443,22 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>12.69</v>
+        <v>12.74</v>
       </c>
       <c r="D32">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.77</v>
+        <v>5.39</v>
       </c>
       <c r="H32">
-        <v>-57.52</v>
+        <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1523,22 +1469,22 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>13.23</v>
+        <v>13.04</v>
       </c>
       <c r="D33">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.26</v>
+        <v>4.45</v>
       </c>
       <c r="H33">
-        <v>-57.22</v>
+        <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1549,7 +1495,7 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D34">
         <v>0.32</v>
@@ -1558,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>7.51</v>
+        <v>8.01</v>
       </c>
       <c r="H34">
-        <v>-53.44</v>
+        <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1575,22 +1521,22 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D35">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>13.51</v>
+        <v>14.38</v>
       </c>
       <c r="H35">
-        <v>-49.45</v>
+        <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1610,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>17.85</v>
+        <v>17.28</v>
       </c>
       <c r="H36">
-        <v>-46.18</v>
+        <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1627,22 +1573,22 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>13.64</v>
+        <v>13.65</v>
       </c>
       <c r="D37">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>18.87</v>
+        <v>18.07</v>
       </c>
       <c r="H37">
-        <v>-45.43</v>
+        <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1656,19 +1602,19 @@
         <v>13.65</v>
       </c>
       <c r="D38">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>19.3</v>
+        <v>18.68</v>
       </c>
       <c r="H38">
-        <v>-45.08</v>
+        <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1688,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>18.66</v>
+        <v>18.94</v>
       </c>
       <c r="H39">
-        <v>-45.69</v>
+        <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1714,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>18.69</v>
+        <v>18.87</v>
       </c>
       <c r="H40">
-        <v>-45.65</v>
+        <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1731,22 +1677,22 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="D41">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>19.04</v>
+        <v>17.96</v>
       </c>
       <c r="H41">
-        <v>-45.36</v>
+        <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1757,22 +1703,22 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
       <c r="D42">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>18.6</v>
+        <v>17.77</v>
       </c>
       <c r="H42">
-        <v>-45.71</v>
+        <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1783,22 +1729,22 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="D43">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>17.11</v>
+        <v>15.68</v>
       </c>
       <c r="H43">
-        <v>-46.82</v>
+        <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1809,7 +1755,7 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>13.14</v>
+        <v>13.13</v>
       </c>
       <c r="D44">
         <v>0.35</v>
@@ -1818,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>14.18</v>
+        <v>13.19</v>
       </c>
       <c r="H44">
-        <v>-49.04</v>
+        <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1835,22 +1781,22 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>13.05</v>
+        <v>13.04</v>
       </c>
       <c r="D45">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>12.84</v>
+        <v>11.78</v>
       </c>
       <c r="H45">
-        <v>-50.03</v>
+        <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1861,7 +1807,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>13.02</v>
+        <v>13.01</v>
       </c>
       <c r="D46">
         <v>0.34</v>
@@ -1870,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>11.76</v>
+        <v>12.11</v>
       </c>
       <c r="H46">
-        <v>-50.75</v>
+        <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1887,22 +1833,22 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>12.99</v>
+        <v>12.98</v>
       </c>
       <c r="D47">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>10.83</v>
+        <v>12.03</v>
       </c>
       <c r="H47">
-        <v>-51.36</v>
+        <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1913,7 +1859,7 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>12.96</v>
+        <v>12.97</v>
       </c>
       <c r="D48">
         <v>0.33</v>
@@ -1922,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>9.82</v>
+        <v>11.42</v>
       </c>
       <c r="H48">
-        <v>-52.02</v>
+        <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1939,22 +1885,22 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>12.94</v>
+        <v>12.95</v>
       </c>
       <c r="D49">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>9.01</v>
+        <v>10.06</v>
       </c>
       <c r="H49">
-        <v>-52.54</v>
+        <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>7.77</v>
       </c>
       <c r="H50">
-        <v>-53.18</v>
+        <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1994,19 +1940,19 @@
         <v>12.9</v>
       </c>
       <c r="D51">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>7.44</v>
+        <v>6.44</v>
       </c>
       <c r="H51">
-        <v>-53.54</v>
+        <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2017,22 +1963,22 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>12.88</v>
+        <v>12.86</v>
       </c>
       <c r="D52">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>7.67</v>
+        <v>5.54</v>
       </c>
       <c r="H52">
-        <v>-53.4</v>
+        <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2043,22 +1989,22 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="D53">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>7.56</v>
+        <v>5.48</v>
       </c>
       <c r="H53">
-        <v>-53.46</v>
+        <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2069,7 +2015,7 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>12.83</v>
+        <v>12.8</v>
       </c>
       <c r="D54">
         <v>0.31</v>
@@ -2078,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>6.92</v>
+        <v>5.44</v>
       </c>
       <c r="H54">
-        <v>-53.85</v>
+        <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2095,7 +2041,7 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>12.79</v>
+        <v>12.77</v>
       </c>
       <c r="D55">
         <v>0.31</v>
@@ -2104,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>5.86</v>
+        <v>4.5</v>
       </c>
       <c r="H55">
-        <v>-54.5</v>
+        <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2121,7 +2067,7 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>12.75</v>
+        <v>12.72</v>
       </c>
       <c r="D56">
         <v>0.31</v>
@@ -2130,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>4.87</v>
+        <v>5.64</v>
       </c>
       <c r="H56">
-        <v>-55.1</v>
+        <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2147,7 +2093,7 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>13.17</v>
+        <v>13.01</v>
       </c>
       <c r="D57">
         <v>0.31</v>
@@ -2156,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>4.49</v>
+        <v>6.93</v>
       </c>
       <c r="H57">
-        <v>-55.3</v>
+        <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2173,22 +2119,22 @@
         <v>65</v>
       </c>
       <c r="C58">
-        <v>13.59</v>
+        <v>13.56</v>
       </c>
       <c r="D58">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>8.81</v>
+        <v>9.32</v>
       </c>
       <c r="H58">
-        <v>-52.57</v>
+        <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2199,22 +2145,22 @@
         <v>66</v>
       </c>
       <c r="C59">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D59">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>15.13</v>
+        <v>11.86</v>
       </c>
       <c r="H59">
-        <v>-48.27</v>
+        <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2225,22 +2171,22 @@
         <v>67</v>
       </c>
       <c r="C60">
-        <v>13.64</v>
+        <v>13.62</v>
       </c>
       <c r="D60">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>17.46</v>
+        <v>14.85</v>
       </c>
       <c r="H60">
-        <v>-46.53</v>
+        <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2251,22 +2197,22 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>13.65</v>
+        <v>13.63</v>
       </c>
       <c r="D61">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>17.81</v>
+        <v>15.93</v>
       </c>
       <c r="H61">
-        <v>-46.3</v>
+        <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2277,22 +2223,22 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>13.65</v>
+        <v>13.63</v>
       </c>
       <c r="D62">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>18.34</v>
+        <v>15.8</v>
       </c>
       <c r="H62">
-        <v>-45.95</v>
+        <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2303,22 +2249,22 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>13.65</v>
+        <v>13.64</v>
       </c>
       <c r="D63">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>18.86</v>
+        <v>15.62</v>
       </c>
       <c r="H63">
-        <v>-45.53</v>
+        <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2329,22 +2275,22 @@
         <v>71</v>
       </c>
       <c r="C64">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D64">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>19.5</v>
+        <v>16.72</v>
       </c>
       <c r="H64">
-        <v>-45.02</v>
+        <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2355,22 +2301,22 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>13.67</v>
+        <v>13.65</v>
       </c>
       <c r="D65">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>19.65</v>
+        <v>16.38</v>
       </c>
       <c r="H65">
-        <v>-44.85</v>
+        <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2381,22 +2327,22 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>13.67</v>
+        <v>13.65</v>
       </c>
       <c r="D66">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>19.05</v>
+        <v>15.48</v>
       </c>
       <c r="H66">
-        <v>-45.31</v>
+        <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2410,19 +2356,19 @@
         <v>13.63</v>
       </c>
       <c r="D67">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>17.15</v>
+        <v>14.48</v>
       </c>
       <c r="H67">
-        <v>-46.74</v>
+        <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2433,22 +2379,22 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>13.11</v>
+        <v>13.1</v>
       </c>
       <c r="D68">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>13.44</v>
+        <v>13.07</v>
       </c>
       <c r="H68">
-        <v>-49.55</v>
+        <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2459,22 +2405,22 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>13.04</v>
+        <v>13.05</v>
       </c>
       <c r="D69">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>9.93</v>
+        <v>11.84</v>
       </c>
       <c r="H69">
-        <v>-51.91</v>
+        <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2485,22 +2431,22 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="D70">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>8.34</v>
+        <v>11.77</v>
       </c>
       <c r="H70">
-        <v>-52.98</v>
+        <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2511,22 +2457,22 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="D71">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>9.16</v>
+        <v>10.91</v>
       </c>
       <c r="H71">
-        <v>-52.49</v>
+        <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2537,7 +2483,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>12.95</v>
+        <v>12.97</v>
       </c>
       <c r="D72">
         <v>0.33</v>
@@ -2546,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>10.53</v>
+        <v>10.69</v>
       </c>
       <c r="H72">
-        <v>-51.61</v>
+        <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2563,22 +2509,22 @@
         <v>80</v>
       </c>
       <c r="C73">
-        <v>12.92</v>
+        <v>12.95</v>
       </c>
       <c r="D73">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>7.75</v>
+        <v>10.31</v>
       </c>
       <c r="H73">
-        <v>-53.32</v>
+        <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2589,490 +2535,22 @@
         <v>81</v>
       </c>
       <c r="C74">
-        <v>12.9</v>
+        <v>12.94</v>
       </c>
       <c r="D74">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>6.74</v>
+        <v>9.76</v>
       </c>
       <c r="H74">
-        <v>-53.97</v>
+        <v>-52.08</v>
       </c>
       <c r="J74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75">
-        <v>12.88</v>
-      </c>
-      <c r="D75">
-        <v>0.31</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>6.88</v>
-      </c>
-      <c r="H75">
-        <v>-53.89</v>
-      </c>
-      <c r="J75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76">
-        <v>12.86</v>
-      </c>
-      <c r="D76">
-        <v>0.31</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>6.46</v>
-      </c>
-      <c r="H76">
-        <v>-54.14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77">
-        <v>12.83</v>
-      </c>
-      <c r="D77">
-        <v>0.31</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>5.14</v>
-      </c>
-      <c r="H77">
-        <v>-54.93</v>
-      </c>
-      <c r="J77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78">
-        <v>12.79</v>
-      </c>
-      <c r="D78">
-        <v>0.3</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>3.49</v>
-      </c>
-      <c r="H78">
-        <v>-55.92</v>
-      </c>
-      <c r="J78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79">
-        <v>12.74</v>
-      </c>
-      <c r="D79">
-        <v>0.3</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>2.26</v>
-      </c>
-      <c r="H79">
-        <v>-56.65</v>
-      </c>
-      <c r="J79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80">
-        <v>12.69</v>
-      </c>
-      <c r="D80">
-        <v>0.3</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1.45</v>
-      </c>
-      <c r="H80">
-        <v>-57.12</v>
-      </c>
-      <c r="J80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81">
-        <v>13.2</v>
-      </c>
-      <c r="D81">
-        <v>0.3</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1.94</v>
-      </c>
-      <c r="H81">
-        <v>-56.82</v>
-      </c>
-      <c r="J81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82">
-        <v>13.59</v>
-      </c>
-      <c r="D82">
-        <v>0.32</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>7.51</v>
-      </c>
-      <c r="H82">
-        <v>-53.42</v>
-      </c>
-      <c r="J82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83">
-        <v>13.61</v>
-      </c>
-      <c r="D83">
-        <v>0.35</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>13.44</v>
-      </c>
-      <c r="H83">
-        <v>-49.44</v>
-      </c>
-      <c r="J83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84">
-        <v>13.63</v>
-      </c>
-      <c r="D84">
-        <v>0.38</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>17.22</v>
-      </c>
-      <c r="H84">
-        <v>-46.7</v>
-      </c>
-      <c r="J84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85">
-        <v>13.64</v>
-      </c>
-      <c r="D85">
-        <v>0.39</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>17.73</v>
-      </c>
-      <c r="H85">
-        <v>-46.36</v>
-      </c>
-      <c r="J85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86">
-        <v>13.65</v>
-      </c>
-      <c r="D86">
-        <v>0.4</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>18.64</v>
-      </c>
-      <c r="H86">
-        <v>-45.7</v>
-      </c>
-      <c r="J86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87">
-        <v>13.65</v>
-      </c>
-      <c r="D87">
-        <v>0.4</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>19.26</v>
-      </c>
-      <c r="H87">
-        <v>-45.2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88">
-        <v>13.66</v>
-      </c>
-      <c r="D88">
-        <v>0.41</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>19.54</v>
-      </c>
-      <c r="H88">
-        <v>-44.98</v>
-      </c>
-      <c r="J88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89">
-        <v>13.67</v>
-      </c>
-      <c r="D89">
-        <v>0.4</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>19.17</v>
-      </c>
-      <c r="H89">
-        <v>-45.25</v>
-      </c>
-      <c r="J89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90">
-        <v>13.67</v>
-      </c>
-      <c r="D90">
-        <v>0.4</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>18.57</v>
-      </c>
-      <c r="H90">
-        <v>-45.68</v>
-      </c>
-      <c r="J90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91">
-        <v>13.66</v>
-      </c>
-      <c r="D91">
-        <v>0.38</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>16.56</v>
-      </c>
-      <c r="H91">
-        <v>-47.23</v>
-      </c>
-      <c r="J91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92">
-        <v>13.13</v>
-      </c>
-      <c r="D92">
-        <v>0.35</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>13.17</v>
-      </c>
-      <c r="H92">
-        <v>-49.74</v>
-      </c>
-      <c r="J92" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>11/17/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +684,7 @@
         <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -704,7 +710,7 @@
         <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -730,7 +736,7 @@
         <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -756,7 +762,7 @@
         <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -782,7 +788,7 @@
         <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -808,7 +814,7 @@
         <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -834,7 +840,7 @@
         <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -860,7 +866,7 @@
         <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -886,7 +892,7 @@
         <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -912,7 +918,7 @@
         <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -938,7 +944,7 @@
         <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -964,7 +970,7 @@
         <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -990,7 +996,7 @@
         <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1016,7 +1022,7 @@
         <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1042,7 +1048,7 @@
         <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1074,7 @@
         <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1094,7 +1100,7 @@
         <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1120,7 +1126,7 @@
         <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,7 +1152,7 @@
         <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1172,7 +1178,7 @@
         <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1198,7 +1204,7 @@
         <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1224,7 +1230,7 @@
         <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1250,7 +1256,7 @@
         <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1276,7 +1282,7 @@
         <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1302,7 +1308,7 @@
         <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1328,7 +1334,7 @@
         <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1354,7 +1360,7 @@
         <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1380,7 +1386,7 @@
         <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1406,7 +1412,7 @@
         <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1432,7 +1438,7 @@
         <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1458,7 +1464,7 @@
         <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1484,7 +1490,7 @@
         <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1510,7 +1516,7 @@
         <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1536,7 +1542,7 @@
         <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1562,7 +1568,7 @@
         <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1588,7 +1594,7 @@
         <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1614,7 +1620,7 @@
         <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1640,7 +1646,7 @@
         <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1666,7 +1672,7 @@
         <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1692,7 +1698,7 @@
         <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,7 +1724,7 @@
         <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1744,7 +1750,7 @@
         <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1770,7 +1776,7 @@
         <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1796,7 +1802,7 @@
         <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1822,7 +1828,7 @@
         <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1848,7 +1854,7 @@
         <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1874,7 +1880,7 @@
         <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1900,7 +1906,7 @@
         <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1926,7 +1932,7 @@
         <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1952,7 +1958,7 @@
         <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1978,7 +1984,7 @@
         <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2004,7 +2010,7 @@
         <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2030,7 +2036,7 @@
         <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2056,7 +2062,7 @@
         <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2082,7 +2088,7 @@
         <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2108,7 +2114,7 @@
         <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2134,7 +2140,7 @@
         <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2160,7 +2166,7 @@
         <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2186,7 +2192,7 @@
         <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2212,7 +2218,7 @@
         <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2238,7 +2244,7 @@
         <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2264,7 +2270,7 @@
         <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2290,7 +2296,7 @@
         <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2316,7 +2322,7 @@
         <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2342,7 +2348,7 @@
         <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2368,7 +2374,7 @@
         <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2394,7 +2400,7 @@
         <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2420,7 +2426,7 @@
         <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2446,7 +2452,7 @@
         <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2472,7 +2478,7 @@
         <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2498,7 +2504,7 @@
         <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2524,7 +2530,7 @@
         <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2550,7 +2556,59 @@
         <v>-52.08</v>
       </c>
       <c r="J74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>82</v>
+      </c>
+      <c r="C75">
+        <v>12.92</v>
+      </c>
+      <c r="D75">
+        <v>0.32</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>9.01</v>
+      </c>
+      <c r="H75">
+        <v>-52.55</v>
+      </c>
+      <c r="J75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>12.88</v>
+      </c>
+      <c r="D76">
+        <v>0.32</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>9.15</v>
+      </c>
+      <c r="H76">
+        <v>-52.47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +687,7 @@
         <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -710,7 +713,7 @@
         <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -736,7 +739,7 @@
         <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -762,7 +765,7 @@
         <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -788,7 +791,7 @@
         <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -814,7 +817,7 @@
         <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -840,7 +843,7 @@
         <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -866,7 +869,7 @@
         <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -892,7 +895,7 @@
         <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -918,7 +921,7 @@
         <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -944,7 +947,7 @@
         <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -970,7 +973,7 @@
         <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -996,7 +999,7 @@
         <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1022,7 +1025,7 @@
         <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1048,7 +1051,7 @@
         <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1074,7 +1077,7 @@
         <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1103,7 @@
         <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1126,7 +1129,7 @@
         <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1152,7 +1155,7 @@
         <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1178,7 +1181,7 @@
         <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1204,7 +1207,7 @@
         <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1230,7 +1233,7 @@
         <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1256,7 +1259,7 @@
         <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1282,7 +1285,7 @@
         <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1308,7 +1311,7 @@
         <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1334,7 +1337,7 @@
         <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1360,7 +1363,7 @@
         <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1386,7 +1389,7 @@
         <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1412,7 +1415,7 @@
         <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1438,7 +1441,7 @@
         <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1464,7 +1467,7 @@
         <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1490,7 +1493,7 @@
         <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1516,7 +1519,7 @@
         <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1542,7 +1545,7 @@
         <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1568,7 +1571,7 @@
         <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1594,7 +1597,7 @@
         <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1620,7 +1623,7 @@
         <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1646,7 +1649,7 @@
         <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1672,7 +1675,7 @@
         <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1698,7 +1701,7 @@
         <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1724,7 +1727,7 @@
         <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,7 +1753,7 @@
         <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1776,7 +1779,7 @@
         <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1802,7 +1805,7 @@
         <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1828,7 +1831,7 @@
         <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1854,7 +1857,7 @@
         <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1880,7 +1883,7 @@
         <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1906,7 +1909,7 @@
         <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1932,7 +1935,7 @@
         <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1958,7 +1961,7 @@
         <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1984,7 +1987,7 @@
         <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2010,7 +2013,7 @@
         <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2036,7 +2039,7 @@
         <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2062,7 +2065,7 @@
         <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2088,7 +2091,7 @@
         <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2114,7 +2117,7 @@
         <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2140,7 +2143,7 @@
         <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2166,7 +2169,7 @@
         <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2192,7 +2195,7 @@
         <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2218,7 +2221,7 @@
         <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2244,7 +2247,7 @@
         <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2270,7 +2273,7 @@
         <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2296,7 +2299,7 @@
         <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2322,7 +2325,7 @@
         <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2348,7 +2351,7 @@
         <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2374,7 +2377,7 @@
         <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2400,7 +2403,7 @@
         <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2426,7 +2429,7 @@
         <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2452,7 +2455,7 @@
         <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2478,7 +2481,7 @@
         <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2504,7 +2507,7 @@
         <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2530,7 +2533,7 @@
         <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2556,7 +2559,7 @@
         <v>-52.08</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2582,7 +2585,7 @@
         <v>-52.55</v>
       </c>
       <c r="J75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2608,7 +2611,33 @@
         <v>-52.47</v>
       </c>
       <c r="J76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>84</v>
+      </c>
+      <c r="C77">
+        <v>12.86</v>
+      </c>
+      <c r="D77">
+        <v>0.32</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="H77">
+        <v>-52.64</v>
+      </c>
+      <c r="J77" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +693,7 @@
         <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -713,7 +719,7 @@
         <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -739,7 +745,7 @@
         <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -765,7 +771,7 @@
         <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -791,7 +797,7 @@
         <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -817,7 +823,7 @@
         <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -843,7 +849,7 @@
         <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -869,7 +875,7 @@
         <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -895,7 +901,7 @@
         <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -921,7 +927,7 @@
         <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -947,7 +953,7 @@
         <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -973,7 +979,7 @@
         <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -999,7 +1005,7 @@
         <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1025,7 +1031,7 @@
         <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1051,7 +1057,7 @@
         <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1077,7 +1083,7 @@
         <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1103,7 +1109,7 @@
         <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1129,7 +1135,7 @@
         <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1155,7 +1161,7 @@
         <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1181,7 +1187,7 @@
         <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1207,7 +1213,7 @@
         <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1233,7 +1239,7 @@
         <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1259,7 +1265,7 @@
         <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1285,7 +1291,7 @@
         <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1311,7 +1317,7 @@
         <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1337,7 +1343,7 @@
         <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1363,7 +1369,7 @@
         <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1389,7 +1395,7 @@
         <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1415,7 +1421,7 @@
         <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1441,7 +1447,7 @@
         <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1467,7 +1473,7 @@
         <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1493,7 +1499,7 @@
         <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1519,7 +1525,7 @@
         <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1545,7 +1551,7 @@
         <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1571,7 +1577,7 @@
         <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1597,7 +1603,7 @@
         <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1623,7 +1629,7 @@
         <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1649,7 +1655,7 @@
         <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1675,7 +1681,7 @@
         <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1701,7 +1707,7 @@
         <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1727,7 +1733,7 @@
         <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1753,7 +1759,7 @@
         <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1779,7 +1785,7 @@
         <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1805,7 +1811,7 @@
         <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1831,7 +1837,7 @@
         <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1857,7 +1863,7 @@
         <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1883,7 +1889,7 @@
         <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1909,7 +1915,7 @@
         <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1935,7 +1941,7 @@
         <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1961,7 +1967,7 @@
         <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1987,7 +1993,7 @@
         <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2013,7 +2019,7 @@
         <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2039,7 +2045,7 @@
         <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2065,7 +2071,7 @@
         <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2091,7 +2097,7 @@
         <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2117,7 +2123,7 @@
         <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2143,7 +2149,7 @@
         <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2169,7 +2175,7 @@
         <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2195,7 +2201,7 @@
         <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2221,7 +2227,7 @@
         <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2247,7 +2253,7 @@
         <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2273,7 +2279,7 @@
         <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2299,7 +2305,7 @@
         <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2325,7 +2331,7 @@
         <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2351,7 +2357,7 @@
         <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2377,7 +2383,7 @@
         <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2403,7 +2409,7 @@
         <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2429,7 +2435,7 @@
         <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2455,7 +2461,7 @@
         <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2481,7 +2487,7 @@
         <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2507,7 +2513,7 @@
         <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2533,7 +2539,7 @@
         <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2559,7 +2565,7 @@
         <v>-52.08</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2585,7 +2591,7 @@
         <v>-52.55</v>
       </c>
       <c r="J75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2611,7 +2617,7 @@
         <v>-52.47</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2637,7 +2643,59 @@
         <v>-52.64</v>
       </c>
       <c r="J77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>85</v>
+      </c>
+      <c r="C78">
+        <v>12.82</v>
+      </c>
+      <c r="D78">
+        <v>0.32</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>7.8</v>
+      </c>
+      <c r="H78">
+        <v>-53.31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>12.77</v>
+      </c>
+      <c r="D79">
+        <v>0.31</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>5.67</v>
+      </c>
+      <c r="H79">
+        <v>-54.6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +699,7 @@
         <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -719,7 +725,7 @@
         <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -745,7 +751,7 @@
         <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -771,7 +777,7 @@
         <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -797,7 +803,7 @@
         <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -823,7 +829,7 @@
         <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -849,7 +855,7 @@
         <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -875,7 +881,7 @@
         <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -901,7 +907,7 @@
         <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -927,7 +933,7 @@
         <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -953,7 +959,7 @@
         <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -979,7 +985,7 @@
         <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1005,7 +1011,7 @@
         <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1031,7 +1037,7 @@
         <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1057,7 +1063,7 @@
         <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1083,7 +1089,7 @@
         <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1109,7 +1115,7 @@
         <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1135,7 +1141,7 @@
         <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1161,7 +1167,7 @@
         <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1187,7 +1193,7 @@
         <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1213,7 +1219,7 @@
         <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1239,7 +1245,7 @@
         <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1265,7 +1271,7 @@
         <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1291,7 +1297,7 @@
         <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1317,7 +1323,7 @@
         <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1343,7 +1349,7 @@
         <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1369,7 +1375,7 @@
         <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1395,7 +1401,7 @@
         <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1421,7 +1427,7 @@
         <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1447,7 +1453,7 @@
         <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1473,7 +1479,7 @@
         <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1499,7 +1505,7 @@
         <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1525,7 +1531,7 @@
         <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1551,7 +1557,7 @@
         <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1577,7 +1583,7 @@
         <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1603,7 +1609,7 @@
         <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1629,7 +1635,7 @@
         <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1655,7 +1661,7 @@
         <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1681,7 +1687,7 @@
         <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1707,7 +1713,7 @@
         <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1733,7 +1739,7 @@
         <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1759,7 +1765,7 @@
         <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1785,7 +1791,7 @@
         <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1811,7 +1817,7 @@
         <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1837,7 +1843,7 @@
         <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1863,7 +1869,7 @@
         <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1889,7 +1895,7 @@
         <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1915,7 +1921,7 @@
         <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1941,7 +1947,7 @@
         <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1967,7 +1973,7 @@
         <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1993,7 +1999,7 @@
         <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2019,7 +2025,7 @@
         <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2045,7 +2051,7 @@
         <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2071,7 +2077,7 @@
         <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2097,7 +2103,7 @@
         <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2123,7 +2129,7 @@
         <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2149,7 +2155,7 @@
         <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2175,7 +2181,7 @@
         <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2201,7 +2207,7 @@
         <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2227,7 +2233,7 @@
         <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2253,7 +2259,7 @@
         <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2279,7 +2285,7 @@
         <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2305,7 +2311,7 @@
         <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2331,7 +2337,7 @@
         <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2357,7 +2363,7 @@
         <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2383,7 +2389,7 @@
         <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2409,7 +2415,7 @@
         <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2435,7 +2441,7 @@
         <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2461,7 +2467,7 @@
         <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2487,7 +2493,7 @@
         <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2513,7 +2519,7 @@
         <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2539,7 +2545,7 @@
         <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2565,7 +2571,7 @@
         <v>-52.08</v>
       </c>
       <c r="J74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2591,7 +2597,7 @@
         <v>-52.55</v>
       </c>
       <c r="J75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2617,7 +2623,7 @@
         <v>-52.47</v>
       </c>
       <c r="J76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2643,7 +2649,7 @@
         <v>-52.64</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2669,7 +2675,7 @@
         <v>-53.31</v>
       </c>
       <c r="J78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2695,7 +2701,59 @@
         <v>-54.6</v>
       </c>
       <c r="J79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>87</v>
+      </c>
+      <c r="C80">
+        <v>12.72</v>
+      </c>
+      <c r="D80">
+        <v>0.3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3.86</v>
+      </c>
+      <c r="H80">
+        <v>-55.7</v>
+      </c>
+      <c r="J80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81">
+        <v>13.17</v>
+      </c>
+      <c r="D81">
+        <v>0.31</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>4.22</v>
+      </c>
+      <c r="H81">
+        <v>-55.47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +702,7 @@
         <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -725,7 +728,7 @@
         <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -751,7 +754,7 @@
         <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -777,7 +780,7 @@
         <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -803,7 +806,7 @@
         <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -829,7 +832,7 @@
         <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -855,7 +858,7 @@
         <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -881,7 +884,7 @@
         <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -907,7 +910,7 @@
         <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -933,7 +936,7 @@
         <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -959,7 +962,7 @@
         <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -985,7 +988,7 @@
         <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1011,7 +1014,7 @@
         <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1037,7 +1040,7 @@
         <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1063,7 +1066,7 @@
         <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1089,7 +1092,7 @@
         <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1115,7 +1118,7 @@
         <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1141,7 +1144,7 @@
         <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1167,7 +1170,7 @@
         <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1193,7 +1196,7 @@
         <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1219,7 +1222,7 @@
         <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1245,7 +1248,7 @@
         <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1271,7 +1274,7 @@
         <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1297,7 +1300,7 @@
         <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1323,7 +1326,7 @@
         <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1349,7 +1352,7 @@
         <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1375,7 +1378,7 @@
         <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1401,7 +1404,7 @@
         <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1427,7 +1430,7 @@
         <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1453,7 +1456,7 @@
         <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1479,7 +1482,7 @@
         <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1505,7 +1508,7 @@
         <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1531,7 +1534,7 @@
         <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1557,7 +1560,7 @@
         <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1583,7 +1586,7 @@
         <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1609,7 +1612,7 @@
         <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1635,7 +1638,7 @@
         <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1661,7 +1664,7 @@
         <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1687,7 +1690,7 @@
         <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1713,7 +1716,7 @@
         <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1739,7 +1742,7 @@
         <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1765,7 +1768,7 @@
         <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1791,7 +1794,7 @@
         <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1817,7 +1820,7 @@
         <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1843,7 +1846,7 @@
         <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1869,7 +1872,7 @@
         <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1895,7 +1898,7 @@
         <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1921,7 +1924,7 @@
         <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1947,7 +1950,7 @@
         <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1973,7 +1976,7 @@
         <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1999,7 +2002,7 @@
         <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2025,7 +2028,7 @@
         <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2051,7 +2054,7 @@
         <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2077,7 +2080,7 @@
         <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2103,7 +2106,7 @@
         <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2129,7 +2132,7 @@
         <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2155,7 +2158,7 @@
         <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2181,7 +2184,7 @@
         <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2207,7 +2210,7 @@
         <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2233,7 +2236,7 @@
         <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2259,7 +2262,7 @@
         <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2285,7 +2288,7 @@
         <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2311,7 +2314,7 @@
         <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2337,7 +2340,7 @@
         <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2363,7 +2366,7 @@
         <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2389,7 +2392,7 @@
         <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2415,7 +2418,7 @@
         <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2441,7 +2444,7 @@
         <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2467,7 +2470,7 @@
         <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2493,7 +2496,7 @@
         <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2519,7 +2522,7 @@
         <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2545,7 +2548,7 @@
         <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2571,7 +2574,7 @@
         <v>-52.08</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2597,7 +2600,7 @@
         <v>-52.55</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2623,7 +2626,7 @@
         <v>-52.47</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2649,7 +2652,7 @@
         <v>-52.64</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2675,7 +2678,7 @@
         <v>-53.31</v>
       </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2701,7 +2704,7 @@
         <v>-54.6</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2727,7 +2730,7 @@
         <v>-55.7</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2753,7 +2756,33 @@
         <v>-55.47</v>
       </c>
       <c r="J81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>89</v>
+      </c>
+      <c r="C82">
+        <v>13.59</v>
+      </c>
+      <c r="D82">
+        <v>0.33</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>10.11</v>
+      </c>
+      <c r="H82">
+        <v>-51.81</v>
+      </c>
+      <c r="J82" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/PACHUTE.xlsx
+++ b/tablas_insivumeh/PACHUTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
   </si>
   <si>
     <t>PACHUTE</t>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +708,7 @@
         <v>-52.85</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -728,7 +734,7 @@
         <v>-51.93</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -754,7 +760,7 @@
         <v>-51.99</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -780,7 +786,7 @@
         <v>-52.25</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -806,7 +812,7 @@
         <v>-52.09</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -832,7 +838,7 @@
         <v>-52.48</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -858,7 +864,7 @@
         <v>-52.98</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -884,7 +890,7 @@
         <v>-52.97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -910,7 +916,7 @@
         <v>-51.43</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -936,7 +942,7 @@
         <v>-48.3</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -962,7 +968,7 @@
         <v>-46.75</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -988,7 +994,7 @@
         <v>-46.76</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1014,7 +1020,7 @@
         <v>-46.25</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1040,7 +1046,7 @@
         <v>-46.11</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1066,7 +1072,7 @@
         <v>-45.64</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1092,7 +1098,7 @@
         <v>-45.62</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1118,7 +1124,7 @@
         <v>-46.13</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1144,7 +1150,7 @@
         <v>-48.16</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1170,7 +1176,7 @@
         <v>-49.66</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1202,7 @@
         <v>-50.03</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1222,7 +1228,7 @@
         <v>-50.37</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1248,7 +1254,7 @@
         <v>-50.63</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1274,7 +1280,7 @@
         <v>-50.81</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1300,7 +1306,7 @@
         <v>-50.82</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1326,7 +1332,7 @@
         <v>-51.14</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1352,7 +1358,7 @@
         <v>-52.48</v>
       </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1378,7 +1384,7 @@
         <v>-53.57</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1404,7 +1410,7 @@
         <v>-54.08</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1430,7 +1436,7 @@
         <v>-54.36</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1456,7 +1462,7 @@
         <v>-54.13</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1482,7 +1488,7 @@
         <v>-54.78</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1508,7 +1514,7 @@
         <v>-55.32</v>
       </c>
       <c r="J33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1534,7 +1540,7 @@
         <v>-53.11</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1560,7 +1566,7 @@
         <v>-48.77</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1586,7 +1592,7 @@
         <v>-46.62</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1612,7 +1618,7 @@
         <v>-46.09</v>
       </c>
       <c r="J37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1638,7 +1644,7 @@
         <v>-45.66</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1664,7 +1670,7 @@
         <v>-45.46</v>
       </c>
       <c r="J39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1690,7 +1696,7 @@
         <v>-45.51</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1716,7 +1722,7 @@
         <v>-46.22</v>
       </c>
       <c r="J41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1742,7 +1748,7 @@
         <v>-46.33</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1768,7 +1774,7 @@
         <v>-47.92</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1794,7 +1800,7 @@
         <v>-49.76</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1820,7 +1826,7 @@
         <v>-50.75</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,7 +1852,7 @@
         <v>-50.54</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1872,7 +1878,7 @@
         <v>-50.59</v>
       </c>
       <c r="J47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1898,7 +1904,7 @@
         <v>-50.99</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1924,7 +1930,7 @@
         <v>-51.86</v>
       </c>
       <c r="J49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1950,7 +1956,7 @@
         <v>-53.31</v>
       </c>
       <c r="J50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1976,7 +1982,7 @@
         <v>-54.15</v>
       </c>
       <c r="J51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2002,7 +2008,7 @@
         <v>-54.7</v>
       </c>
       <c r="J52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2028,7 +2034,7 @@
         <v>-54.74</v>
       </c>
       <c r="J53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2054,7 +2060,7 @@
         <v>-54.76</v>
       </c>
       <c r="J54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2080,7 +2086,7 @@
         <v>-55.31</v>
       </c>
       <c r="J55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2106,7 +2112,7 @@
         <v>-54.66</v>
       </c>
       <c r="J56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2132,7 +2138,7 @@
         <v>-53.86</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2158,7 +2164,7 @@
         <v>-52.35</v>
       </c>
       <c r="J58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2184,7 +2190,7 @@
         <v>-50.68</v>
       </c>
       <c r="J59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2210,7 +2216,7 @@
         <v>-48.57</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2236,7 +2242,7 @@
         <v>-47.73</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2262,7 +2268,7 @@
         <v>-47.85</v>
       </c>
       <c r="J62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2288,7 +2294,7 @@
         <v>-47.98</v>
       </c>
       <c r="J63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2314,7 +2320,7 @@
         <v>-47.17</v>
       </c>
       <c r="J64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2340,7 +2346,7 @@
         <v>-47.4</v>
       </c>
       <c r="J65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2366,7 +2372,7 @@
         <v>-48.08</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2392,7 +2398,7 @@
         <v>-48.83</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2418,7 +2424,7 @@
         <v>-49.86</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2444,7 +2450,7 @@
         <v>-50.7</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2470,7 +2476,7 @@
         <v>-50.75</v>
       </c>
       <c r="J70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2496,7 +2502,7 @@
         <v>-51.32</v>
       </c>
       <c r="J71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2522,7 +2528,7 @@
         <v>-51.47</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2548,7 +2554,7 @@
         <v>-51.73</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2574,7 +2580,7 @@
         <v>-52.08</v>
       </c>
       <c r="J74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2600,7 +2606,7 @@
         <v>-52.55</v>
       </c>
       <c r="J75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2626,7 +2632,7 @@
         <v>-52.47</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2652,7 +2658,7 @@
         <v>-52.64</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2678,7 +2684,7 @@
         <v>-53.31</v>
       </c>
       <c r="J78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2704,7 +2710,7 @@
         <v>-54.6</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2730,7 +2736,7 @@
         <v>-55.7</v>
       </c>
       <c r="J80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2756,7 +2762,7 @@
         <v>-55.47</v>
       </c>
       <c r="J81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2782,7 +2788,59 @@
         <v>-51.81</v>
       </c>
       <c r="J82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>90</v>
+      </c>
+      <c r="C83">
+        <v>13.61</v>
+      </c>
+      <c r="D83">
+        <v>0.35</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>13.66</v>
+      </c>
+      <c r="H83">
+        <v>-49.34</v>
+      </c>
+      <c r="J83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84">
+        <v>13.62</v>
+      </c>
+      <c r="D84">
+        <v>0.35</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>13.67</v>
+      </c>
+      <c r="H84">
+        <v>-49.38</v>
+      </c>
+      <c r="J84" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
